--- a/data/trans_orig/P5B_R-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P5B_R-Habitat-trans_orig.xlsx
@@ -8,14 +8,14 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A1651332-E05B-4198-9C53-DF45DB6528F3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{16F14A89-CF41-4DC4-A6CA-C1143F02B48A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{7FDCB7E2-D6A6-4F8C-BDA3-B7CF853A5489}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{7A0218FB-ECCD-491B-B3A1-FE0FEAE657CC}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
     <sheet name="2012" sheetId="3" r:id="rId2"/>
-    <sheet name="2015" sheetId="4" r:id="rId3"/>
+    <sheet name="2016" sheetId="4" r:id="rId3"/>
     <sheet name="2023" sheetId="5" r:id="rId4"/>
   </sheets>
   <calcPr calcId="191029"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1064" uniqueCount="370">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1064" uniqueCount="369">
   <si>
     <t>Hogares según si tienen calidad medioambiental mala o muy mala en la zona de residencia en 2007 (Tasa respuesta: 73,1%)</t>
   </si>
@@ -68,7 +68,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>Menos de 2</t>
+    <t>&lt;2.000hab</t>
   </si>
   <si>
     <t>Ns/Nc</t>
@@ -110,7 +110,7 @@
     <t>96,58%</t>
   </si>
   <si>
-    <t>2/10</t>
+    <t>2-10.000 hab</t>
   </si>
   <si>
     <t>1,34%</t>
@@ -128,1027 +128,1024 @@
     <t>0,7%</t>
   </si>
   <si>
-    <t>6,38%</t>
+    <t>6,06%</t>
   </si>
   <si>
     <t>2,44%</t>
   </si>
   <si>
-    <t>0,8%</t>
-  </si>
-  <si>
-    <t>7,24%</t>
+    <t>0,79%</t>
+  </si>
+  <si>
+    <t>6,56%</t>
   </si>
   <si>
     <t>2,55%</t>
   </si>
   <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>4,78%</t>
+  </si>
+  <si>
+    <t>97,36%</t>
+  </si>
+  <si>
+    <t>93,94%</t>
+  </si>
+  <si>
+    <t>99,3%</t>
+  </si>
+  <si>
+    <t>97,56%</t>
+  </si>
+  <si>
+    <t>93,44%</t>
+  </si>
+  <si>
+    <t>99,21%</t>
+  </si>
+  <si>
+    <t>97,45%</t>
+  </si>
+  <si>
+    <t>95,22%</t>
+  </si>
+  <si>
+    <t>98,93%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>2,36%</t>
+  </si>
+  <si>
+    <t>8,39%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>2,14%</t>
+  </si>
+  <si>
+    <t>8,54%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>7,16%</t>
+  </si>
+  <si>
+    <t>95,39%</t>
+  </si>
+  <si>
+    <t>91,61%</t>
+  </si>
+  <si>
+    <t>97,64%</t>
+  </si>
+  <si>
+    <t>95,35%</t>
+  </si>
+  <si>
+    <t>91,46%</t>
+  </si>
+  <si>
+    <t>97,86%</t>
+  </si>
+  <si>
+    <t>95,37%</t>
+  </si>
+  <si>
+    <t>92,84%</t>
+  </si>
+  <si>
+    <t>97,09%</t>
+  </si>
+  <si>
+    <t>&gt;50.000hab</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>3,75%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>0,58%</t>
+  </si>
+  <si>
+    <t>5,14%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>3,38%</t>
+  </si>
+  <si>
+    <t>96,25%</t>
+  </si>
+  <si>
+    <t>97,95%</t>
+  </si>
+  <si>
+    <t>94,86%</t>
+  </si>
+  <si>
+    <t>99,42%</t>
+  </si>
+  <si>
+    <t>98,45%</t>
+  </si>
+  <si>
+    <t>96,62%</t>
+  </si>
+  <si>
+    <t>99,45%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>1,65%</t>
+  </si>
+  <si>
+    <t>6,55%</t>
+  </si>
+  <si>
+    <t>5,54%</t>
+  </si>
+  <si>
+    <t>3,09%</t>
+  </si>
+  <si>
+    <t>9,52%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>3,03%</t>
+  </si>
+  <si>
+    <t>7,02%</t>
+  </si>
+  <si>
+    <t>96,35%</t>
+  </si>
+  <si>
+    <t>93,45%</t>
+  </si>
+  <si>
+    <t>98,35%</t>
+  </si>
+  <si>
+    <t>94,46%</t>
+  </si>
+  <si>
+    <t>90,48%</t>
+  </si>
+  <si>
+    <t>96,91%</t>
+  </si>
+  <si>
+    <t>95,38%</t>
+  </si>
+  <si>
+    <t>92,98%</t>
+  </si>
+  <si>
+    <t>96,97%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>1,99%</t>
+  </si>
+  <si>
+    <t>4,57%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>5,32%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>4,42%</t>
+  </si>
+  <si>
+    <t>96,99%</t>
+  </si>
+  <si>
+    <t>95,43%</t>
+  </si>
+  <si>
+    <t>98,01%</t>
+  </si>
+  <si>
+    <t>96,17%</t>
+  </si>
+  <si>
+    <t>94,68%</t>
+  </si>
+  <si>
+    <t>97,47%</t>
+  </si>
+  <si>
+    <t>96,59%</t>
+  </si>
+  <si>
+    <t>95,58%</t>
+  </si>
+  <si>
+    <t>97,38%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Hogares según si tienen calidad medioambiental mala o muy mala en la zona de residencia en 2012 (Tasa respuesta: 69,37%)</t>
+  </si>
+  <si>
+    <t>9,99%</t>
+  </si>
+  <si>
+    <t>9,49%</t>
+  </si>
+  <si>
+    <t>5,03%</t>
+  </si>
+  <si>
+    <t>90,01%</t>
+  </si>
+  <si>
+    <t>90,51%</t>
+  </si>
+  <si>
+    <t>94,97%</t>
+  </si>
+  <si>
+    <t>1,38%</t>
+  </si>
+  <si>
+    <t>1,67%</t>
+  </si>
+  <si>
+    <t>0,76%</t>
+  </si>
+  <si>
+    <t>98,62%</t>
+  </si>
+  <si>
+    <t>98,33%</t>
+  </si>
+  <si>
+    <t>99,24%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>1,96%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>1,29%</t>
+  </si>
+  <si>
+    <t>6,12%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
     <t>1,09%</t>
   </si>
   <si>
-    <t>5,2%</t>
-  </si>
-  <si>
-    <t>97,36%</t>
-  </si>
-  <si>
-    <t>93,62%</t>
-  </si>
-  <si>
-    <t>99,3%</t>
-  </si>
-  <si>
-    <t>97,56%</t>
-  </si>
-  <si>
-    <t>92,76%</t>
-  </si>
-  <si>
-    <t>99,2%</t>
-  </si>
-  <si>
-    <t>97,45%</t>
-  </si>
-  <si>
-    <t>94,8%</t>
-  </si>
-  <si>
-    <t>98,91%</t>
-  </si>
-  <si>
-    <t>10/50</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>2,29%</t>
-  </si>
-  <si>
-    <t>7,99%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>2,16%</t>
-  </si>
-  <si>
-    <t>8,46%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
+    <t>6,85%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>5,15%</t>
+  </si>
+  <si>
+    <t>96,85%</t>
+  </si>
+  <si>
+    <t>93,88%</t>
+  </si>
+  <si>
+    <t>98,71%</t>
+  </si>
+  <si>
+    <t>96,44%</t>
+  </si>
+  <si>
+    <t>92,91%</t>
+  </si>
+  <si>
+    <t>98,52%</t>
+  </si>
+  <si>
+    <t>96,66%</t>
+  </si>
+  <si>
+    <t>94,54%</t>
+  </si>
+  <si>
+    <t>98,14%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>4,54%</t>
+  </si>
+  <si>
+    <t>2,93%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>2,74%</t>
+  </si>
+  <si>
+    <t>98,72%</t>
+  </si>
+  <si>
+    <t>95,46%</t>
+  </si>
+  <si>
+    <t>99,05%</t>
+  </si>
+  <si>
+    <t>97,07%</t>
+  </si>
+  <si>
+    <t>98,88%</t>
+  </si>
+  <si>
+    <t>97,26%</t>
+  </si>
+  <si>
+    <t>99,72%</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>2,8%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>3,67%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>1,04%</t>
+  </si>
+  <si>
+    <t>6,3%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>1,03%</t>
+  </si>
+  <si>
+    <t>4,07%</t>
+  </si>
+  <si>
+    <t>97,77%</t>
+  </si>
+  <si>
+    <t>94,73%</t>
+  </si>
+  <si>
+    <t>99,14%</t>
+  </si>
+  <si>
+    <t>96,38%</t>
+  </si>
+  <si>
+    <t>93,24%</t>
+  </si>
+  <si>
+    <t>98,51%</t>
+  </si>
+  <si>
+    <t>97,1%</t>
+  </si>
+  <si>
+    <t>95,12%</t>
+  </si>
+  <si>
+    <t>98,53%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>0,9%</t>
+  </si>
+  <si>
+    <t>0,07%</t>
+  </si>
+  <si>
+    <t>0,63%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>2,66%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>3,4%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>1,2%</t>
+  </si>
+  <si>
+    <t>98,18%</t>
+  </si>
+  <si>
+    <t>97,12%</t>
+  </si>
+  <si>
+    <t>99,0%</t>
+  </si>
+  <si>
+    <t>97,72%</t>
+  </si>
+  <si>
+    <t>96,27%</t>
+  </si>
+  <si>
+    <t>98,7%</t>
+  </si>
+  <si>
+    <t>97,96%</t>
+  </si>
+  <si>
+    <t>98,57%</t>
+  </si>
+  <si>
+    <t>Hogares según si tienen calidad medioambiental mala o muy mala en la zona de residencia en 2016 (Tasa respuesta: 75,96%)</t>
+  </si>
+  <si>
+    <t>8,64%</t>
+  </si>
+  <si>
+    <t>11,83%</t>
+  </si>
+  <si>
+    <t>5,16%</t>
+  </si>
+  <si>
+    <t>91,36%</t>
+  </si>
+  <si>
+    <t>88,17%</t>
+  </si>
+  <si>
+    <t>94,84%</t>
+  </si>
+  <si>
+    <t>0,78%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>2,21%</t>
+  </si>
+  <si>
+    <t>5,02%</t>
+  </si>
+  <si>
+    <t>1,7%</t>
+  </si>
+  <si>
+    <t>5,75%</t>
+  </si>
+  <si>
+    <t>1,26%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>98,34%</t>
+  </si>
+  <si>
+    <t>94,09%</t>
+  </si>
+  <si>
+    <t>98,3%</t>
+  </si>
+  <si>
+    <t>94,25%</t>
+  </si>
+  <si>
+    <t>98,32%</t>
+  </si>
+  <si>
+    <t>95,88%</t>
+  </si>
+  <si>
+    <t>99,58%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>3,07%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>98,84%</t>
+  </si>
+  <si>
+    <t>96,93%</t>
+  </si>
+  <si>
+    <t>99,67%</t>
+  </si>
+  <si>
+    <t>98,89%</t>
+  </si>
+  <si>
+    <t>99,65%</t>
+  </si>
+  <si>
+    <t>98,86%</t>
+  </si>
+  <si>
+    <t>97,51%</t>
+  </si>
+  <si>
+    <t>99,49%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>3,23%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>3,93%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>1,47%</t>
+  </si>
+  <si>
+    <t>6,67%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>3,97%</t>
+  </si>
+  <si>
+    <t>96,07%</t>
+  </si>
+  <si>
+    <t>95,54%</t>
+  </si>
+  <si>
+    <t>91,98%</t>
+  </si>
+  <si>
+    <t>97,71%</t>
+  </si>
+  <si>
+    <t>97,32%</t>
+  </si>
+  <si>
+    <t>95,3%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>2,18%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>3,28%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>4,37%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>2,89%</t>
+  </si>
+  <si>
+    <t>96,72%</t>
+  </si>
+  <si>
+    <t>99,62%</t>
+  </si>
+  <si>
+    <t>97,82%</t>
+  </si>
+  <si>
+    <t>95,15%</t>
+  </si>
+  <si>
+    <t>99,16%</t>
+  </si>
+  <si>
+    <t>98,26%</t>
+  </si>
+  <si>
+    <t>96,83%</t>
+  </si>
+  <si>
+    <t>1,14%</t>
+  </si>
+  <si>
+    <t>0,1%</t>
+  </si>
+  <si>
+    <t>0,62%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>2,1%</t>
+  </si>
+  <si>
+    <t>1,06%</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>0,94%</t>
+  </si>
+  <si>
+    <t>98,78%</t>
+  </si>
+  <si>
+    <t>97,69%</t>
+  </si>
+  <si>
+    <t>99,36%</t>
+  </si>
+  <si>
+    <t>97,75%</t>
+  </si>
+  <si>
+    <t>98,55%</t>
+  </si>
+  <si>
+    <t>98,29%</t>
+  </si>
+  <si>
+    <t>97,54%</t>
+  </si>
+  <si>
+    <t>98,8%</t>
+  </si>
+  <si>
+    <t>Hogares según si tienen calidad medioambiental mala o muy mala en la zona de residencia en 2023 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>6,57%</t>
+  </si>
+  <si>
+    <t>3,98%</t>
+  </si>
+  <si>
+    <t>93,43%</t>
+  </si>
+  <si>
+    <t>96,02%</t>
+  </si>
+  <si>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>2,12%</t>
+  </si>
+  <si>
+    <t>1,21%</t>
+  </si>
+  <si>
+    <t>99,57%</t>
+  </si>
+  <si>
+    <t>97,88%</t>
+  </si>
+  <si>
+    <t>99,78%</t>
+  </si>
+  <si>
+    <t>98,79%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>0,15%</t>
+  </si>
+  <si>
+    <t>0,2%</t>
+  </si>
+  <si>
+    <t>99,38%</t>
+  </si>
+  <si>
+    <t>97,89%</t>
+  </si>
+  <si>
+    <t>99,32%</t>
+  </si>
+  <si>
+    <t>98,83%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>5,88%</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>22,08%</t>
   </si>
   <si>
     <t>2,9%</t>
   </si>
   <si>
-    <t>7,05%</t>
-  </si>
-  <si>
-    <t>95,39%</t>
-  </si>
-  <si>
-    <t>92,01%</t>
-  </si>
-  <si>
-    <t>97,71%</t>
-  </si>
-  <si>
-    <t>95,35%</t>
-  </si>
-  <si>
-    <t>91,54%</t>
-  </si>
-  <si>
-    <t>97,84%</t>
-  </si>
-  <si>
-    <t>95,37%</t>
-  </si>
-  <si>
-    <t>92,95%</t>
-  </si>
-  <si>
-    <t>97,1%</t>
-  </si>
-  <si>
-    <t>mas de 50</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>3,64%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>5,02%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
+    <t>0,13%</t>
+  </si>
+  <si>
+    <t>11,97%</t>
+  </si>
+  <si>
+    <t>99,15%</t>
+  </si>
+  <si>
+    <t>94,12%</t>
+  </si>
+  <si>
+    <t>77,92%</t>
+  </si>
+  <si>
+    <t>99,48%</t>
+  </si>
+  <si>
+    <t>88,03%</t>
+  </si>
+  <si>
+    <t>99,87%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>2,45%</t>
+  </si>
+  <si>
+    <t>1,73%</t>
+  </si>
+  <si>
+    <t>2,49%</t>
+  </si>
+  <si>
+    <t>8,59%</t>
+  </si>
+  <si>
+    <t>3,96%</t>
+  </si>
+  <si>
+    <t>5,43%</t>
+  </si>
+  <si>
+    <t>90,7%</t>
+  </si>
+  <si>
+    <t>95,42%</t>
+  </si>
+  <si>
+    <t>99,25%</t>
+  </si>
+  <si>
+    <t>94,04%</t>
+  </si>
+  <si>
+    <t>97,6%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
   </si>
   <si>
     <t>0,67%</t>
   </si>
   <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>98,93%</t>
-  </si>
-  <si>
-    <t>96,36%</t>
-  </si>
-  <si>
-    <t>97,95%</t>
-  </si>
-  <si>
-    <t>94,98%</t>
-  </si>
-  <si>
-    <t>99,44%</t>
-  </si>
-  <si>
-    <t>98,45%</t>
-  </si>
-  <si>
-    <t>96,83%</t>
-  </si>
-  <si>
-    <t>99,33%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>0,05%</t>
+  </si>
+  <si>
+    <t>1,31%</t>
+  </si>
+  <si>
+    <t>7,21%</t>
   </si>
   <si>
     <t>1,63%</t>
   </si>
   <si>
-    <t>6,9%</t>
-  </si>
-  <si>
-    <t>5,54%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>9,74%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>3,12%</t>
-  </si>
-  <si>
-    <t>7,15%</t>
-  </si>
-  <si>
-    <t>96,35%</t>
-  </si>
-  <si>
-    <t>93,1%</t>
-  </si>
-  <si>
-    <t>98,37%</t>
-  </si>
-  <si>
-    <t>94,46%</t>
-  </si>
-  <si>
-    <t>90,26%</t>
-  </si>
-  <si>
-    <t>96,89%</t>
-  </si>
-  <si>
-    <t>95,38%</t>
-  </si>
-  <si>
-    <t>92,85%</t>
-  </si>
-  <si>
-    <t>96,88%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>1,92%</t>
-  </si>
-  <si>
-    <t>4,43%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>2,57%</t>
-  </si>
-  <si>
-    <t>5,55%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>4,4%</t>
-  </si>
-  <si>
-    <t>96,99%</t>
-  </si>
-  <si>
-    <t>95,57%</t>
-  </si>
-  <si>
-    <t>98,08%</t>
-  </si>
-  <si>
-    <t>96,17%</t>
-  </si>
-  <si>
-    <t>94,45%</t>
-  </si>
-  <si>
-    <t>97,43%</t>
-  </si>
-  <si>
-    <t>96,59%</t>
-  </si>
-  <si>
-    <t>95,6%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Hogares según si tienen calidad medioambiental mala o muy mala en la zona de residencia en 2012 (Tasa respuesta: 69,37%)</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>9,49%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>90,01%</t>
-  </si>
-  <si>
-    <t>90,51%</t>
-  </si>
-  <si>
-    <t>94,97%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>98,62%</t>
-  </si>
-  <si>
-    <t>98,33%</t>
-  </si>
-  <si>
-    <t>99,24%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>6,49%</t>
-  </si>
-  <si>
-    <t>6,79%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>5,37%</t>
-  </si>
-  <si>
-    <t>96,85%</t>
-  </si>
-  <si>
-    <t>93,51%</t>
-  </si>
-  <si>
-    <t>98,69%</t>
-  </si>
-  <si>
-    <t>96,44%</t>
-  </si>
-  <si>
-    <t>92,89%</t>
-  </si>
-  <si>
-    <t>96,66%</t>
-  </si>
-  <si>
-    <t>94,58%</t>
-  </si>
-  <si>
-    <t>98,15%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>4,18%</t>
-  </si>
-  <si>
-    <t>3,39%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>3,0%</t>
-  </si>
-  <si>
-    <t>98,72%</t>
-  </si>
-  <si>
-    <t>95,82%</t>
-  </si>
-  <si>
-    <t>99,05%</t>
-  </si>
-  <si>
-    <t>96,61%</t>
-  </si>
-  <si>
-    <t>98,88%</t>
-  </si>
-  <si>
-    <t>97,0%</t>
-  </si>
-  <si>
-    <t>99,73%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>2,86%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>1,95%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>3,48%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>6,58%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>0,99%</t>
-  </si>
-  <si>
-    <t>3,82%</t>
-  </si>
-  <si>
-    <t>97,77%</t>
-  </si>
-  <si>
-    <t>99,15%</t>
-  </si>
-  <si>
-    <t>96,38%</t>
-  </si>
-  <si>
-    <t>92,75%</t>
-  </si>
-  <si>
-    <t>95,29%</t>
-  </si>
-  <si>
-    <t>98,44%</t>
-  </si>
-  <si>
-    <t>0,92%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>0,07%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>2,6%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>1,17%</t>
-  </si>
-  <si>
-    <t>3,33%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>2,54%</t>
-  </si>
-  <si>
-    <t>98,18%</t>
-  </si>
-  <si>
-    <t>97,13%</t>
-  </si>
-  <si>
-    <t>98,96%</t>
-  </si>
-  <si>
-    <t>97,72%</t>
-  </si>
-  <si>
-    <t>96,33%</t>
-  </si>
-  <si>
-    <t>98,68%</t>
-  </si>
-  <si>
-    <t>97,96%</t>
-  </si>
-  <si>
-    <t>97,14%</t>
-  </si>
-  <si>
-    <t>98,54%</t>
-  </si>
-  <si>
-    <t>Hogares según si tienen calidad medioambiental mala o muy mala en la zona de residencia en 2015 (Tasa respuesta: 75,96%)</t>
-  </si>
-  <si>
-    <t>8,64%</t>
-  </si>
-  <si>
-    <t>11,83%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>91,36%</t>
-  </si>
-  <si>
-    <t>88,17%</t>
-  </si>
-  <si>
-    <t>94,84%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>4,74%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>3,55%</t>
-  </si>
-  <si>
-    <t>6,11%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>3,34%</t>
-  </si>
-  <si>
-    <t>98,34%</t>
-  </si>
-  <si>
-    <t>93,71%</t>
-  </si>
-  <si>
-    <t>98,3%</t>
-  </si>
-  <si>
-    <t>93,89%</t>
-  </si>
-  <si>
-    <t>98,32%</t>
-  </si>
-  <si>
-    <t>96,12%</t>
-  </si>
-  <si>
-    <t>99,58%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>1,76%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>0,87%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>3,66%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>2,46%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>2,39%</t>
-  </si>
-  <si>
-    <t>98,84%</t>
-  </si>
-  <si>
-    <t>96,34%</t>
-  </si>
-  <si>
-    <t>99,67%</t>
-  </si>
-  <si>
-    <t>98,89%</t>
-  </si>
-  <si>
-    <t>97,05%</t>
-  </si>
-  <si>
-    <t>99,65%</t>
-  </si>
-  <si>
-    <t>98,86%</t>
-  </si>
-  <si>
-    <t>97,57%</t>
-  </si>
-  <si>
-    <t>99,62%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>3,1%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>1,57%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>4,14%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>6,94%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>4,16%</t>
-  </si>
-  <si>
-    <t>95,86%</t>
-  </si>
-  <si>
-    <t>95,54%</t>
-  </si>
-  <si>
-    <t>91,82%</t>
-  </si>
-  <si>
-    <t>98,01%</t>
-  </si>
-  <si>
-    <t>97,32%</t>
-  </si>
-  <si>
-    <t>95,21%</t>
-  </si>
-  <si>
-    <t>98,58%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>2,87%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>1,41%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>4,12%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>0,66%</t>
-  </si>
-  <si>
-    <t>3,06%</t>
-  </si>
-  <si>
-    <t>99,61%</t>
-  </si>
-  <si>
-    <t>97,82%</t>
-  </si>
-  <si>
-    <t>95,51%</t>
-  </si>
-  <si>
-    <t>98,26%</t>
-  </si>
-  <si>
-    <t>96,55%</t>
-  </si>
-  <si>
-    <t>99,14%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>0,11%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>2,0%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>0,93%</t>
-  </si>
-  <si>
-    <t>2,84%</t>
-  </si>
-  <si>
-    <t>2,11%</t>
-  </si>
-  <si>
-    <t>98,78%</t>
-  </si>
-  <si>
-    <t>99,4%</t>
-  </si>
-  <si>
-    <t>97,75%</t>
-  </si>
-  <si>
-    <t>98,29%</t>
-  </si>
-  <si>
-    <t>97,6%</t>
-  </si>
-  <si>
-    <t>98,82%</t>
-  </si>
-  <si>
-    <t>Hogares según si tienen calidad medioambiental mala o muy mala en la zona de residencia en 2023 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>93,43%</t>
-  </si>
-  <si>
-    <t>96,02%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>1,32%</t>
-  </si>
-  <si>
-    <t>99,57%</t>
-  </si>
-  <si>
-    <t>97,9%</t>
-  </si>
-  <si>
-    <t>99,78%</t>
-  </si>
-  <si>
-    <t>1,56%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>1,8%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>99,38%</t>
-  </si>
-  <si>
-    <t>97,93%</t>
-  </si>
-  <si>
-    <t>99,32%</t>
-  </si>
-  <si>
-    <t>98,76%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>5,88%</t>
-  </si>
-  <si>
-    <t>22,25%</t>
-  </si>
-  <si>
-    <t>0,25%</t>
-  </si>
-  <si>
-    <t>12,93%</t>
-  </si>
-  <si>
-    <t>94,12%</t>
-  </si>
-  <si>
-    <t>77,75%</t>
-  </si>
-  <si>
-    <t>99,5%</t>
-  </si>
-  <si>
-    <t>87,07%</t>
-  </si>
-  <si>
-    <t>99,75%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>2,67%</t>
-  </si>
-  <si>
-    <t>1,91%</t>
-  </si>
-  <si>
-    <t>2,5%</t>
-  </si>
-  <si>
-    <t>8,59%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>0,65%</t>
-  </si>
-  <si>
-    <t>3,95%</t>
-  </si>
-  <si>
-    <t>5,08%</t>
-  </si>
-  <si>
-    <t>90,92%</t>
-  </si>
-  <si>
-    <t>97,28%</t>
-  </si>
-  <si>
-    <t>95,15%</t>
-  </si>
-  <si>
-    <t>99,01%</t>
-  </si>
-  <si>
-    <t>96,27%</t>
-  </si>
-  <si>
-    <t>94,28%</t>
-  </si>
-  <si>
-    <t>97,73%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>0,05%</t>
-  </si>
-  <si>
-    <t>0,69%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>0,51%</t>
-  </si>
-  <si>
-    <t>8,1%</t>
-  </si>
-  <si>
-    <t>0,89%</t>
+    <t>4,58%</t>
   </si>
   <si>
     <t>98,47%</t>
   </si>
   <si>
-    <t>97,53%</t>
-  </si>
-  <si>
-    <t>99,13%</t>
-  </si>
-  <si>
-    <t>97,88%</t>
-  </si>
-  <si>
-    <t>91,91%</t>
+    <t>97,52%</t>
+  </si>
+  <si>
+    <t>92,58%</t>
   </si>
   <si>
     <t>98,19%</t>
   </si>
   <si>
-    <t>95,58%</t>
+    <t>98,99%</t>
   </si>
 </sst>
 </file>
@@ -1560,7 +1557,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF5F7C16-73E1-443D-AB1C-9B31F2A8BFA0}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7235DA05-23DB-4433-979B-28D731A2E696}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -2353,13 +2350,13 @@
         <v>1207</v>
       </c>
       <c r="E17" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G17" s="7" t="s">
         <v>71</v>
-      </c>
-      <c r="F17" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G17" s="7" t="s">
-        <v>72</v>
       </c>
       <c r="H17" s="7">
         <v>4</v>
@@ -2368,13 +2365,13 @@
         <v>2208</v>
       </c>
       <c r="J17" s="7" t="s">
+        <v>72</v>
+      </c>
+      <c r="K17" s="7" t="s">
         <v>73</v>
       </c>
-      <c r="K17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>74</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>75</v>
       </c>
       <c r="M17" s="7">
         <v>6</v>
@@ -2383,13 +2380,13 @@
         <v>3415</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -2404,10 +2401,10 @@
         <v>111366</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>79</v>
+        <v>44</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="G18" s="7" t="s">
         <v>18</v>
@@ -2419,13 +2416,13 @@
         <v>105640</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="M18" s="7">
         <v>344</v>
@@ -2434,13 +2431,13 @@
         <v>217005</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2496,7 +2493,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -2514,7 +2511,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -2544,7 +2541,7 @@
         <v>12</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2559,13 +2556,13 @@
         <v>5723</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="H21" s="7">
         <v>12</v>
@@ -2574,13 +2571,13 @@
         <v>9157</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="M21" s="7">
         <v>21</v>
@@ -2589,13 +2586,13 @@
         <v>14880</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -2610,13 +2607,13 @@
         <v>151223</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="H22" s="7">
         <v>204</v>
@@ -2625,13 +2622,13 @@
         <v>156179</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="M22" s="7">
         <v>426</v>
@@ -2640,13 +2637,13 @@
         <v>307402</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2720,7 +2717,7 @@
         <v>12</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="H24" s="7">
         <v>0</v>
@@ -2735,7 +2732,7 @@
         <v>12</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="M24" s="7">
         <v>0</v>
@@ -2750,7 +2747,7 @@
         <v>12</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -2765,13 +2762,13 @@
         <v>15919</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="H25" s="7">
         <v>28</v>
@@ -2780,13 +2777,13 @@
         <v>19275</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="M25" s="7">
         <v>53</v>
@@ -2795,13 +2792,13 @@
         <v>35195</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>27</v>
+        <v>115</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -2816,13 +2813,13 @@
         <v>512631</v>
       </c>
       <c r="E26" s="7" t="s">
+        <v>117</v>
+      </c>
+      <c r="F26" s="7" t="s">
+        <v>118</v>
+      </c>
+      <c r="G26" s="7" t="s">
         <v>119</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>120</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>121</v>
       </c>
       <c r="H26" s="7">
         <v>718</v>
@@ -2831,13 +2828,13 @@
         <v>484084</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>120</v>
+      </c>
+      <c r="K26" s="7" t="s">
+        <v>121</v>
+      </c>
+      <c r="L26" s="7" t="s">
         <v>122</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>124</v>
       </c>
       <c r="M26" s="7">
         <v>1485</v>
@@ -2846,13 +2843,13 @@
         <v>996713</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>123</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>124</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>125</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>126</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>36</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -2908,7 +2905,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
   </sheetData>
@@ -2929,7 +2926,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C22478FC-8F4A-4395-B837-1B65CF36F84C}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA4A02C8-2E15-4AA8-83B3-0EE4C3866FA8}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -2946,7 +2943,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3059,7 +3056,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -3074,7 +3071,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -3089,7 +3086,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3110,7 +3107,7 @@
         <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -3125,7 +3122,7 @@
         <v>12</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -3140,7 +3137,7 @@
         <v>12</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -3158,7 +3155,7 @@
         <v>18</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="G6" s="7" t="s">
         <v>20</v>
@@ -3173,7 +3170,7 @@
         <v>18</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="L6" s="7" t="s">
         <v>20</v>
@@ -3188,7 +3185,7 @@
         <v>18</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="Q6" s="7" t="s">
         <v>20</v>
@@ -3265,7 +3262,7 @@
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -3280,7 +3277,7 @@
         <v>12</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -3295,7 +3292,7 @@
         <v>12</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3316,7 +3313,7 @@
         <v>12</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="H9" s="7">
         <v>0</v>
@@ -3331,7 +3328,7 @@
         <v>12</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="M9" s="7">
         <v>0</v>
@@ -3346,7 +3343,7 @@
         <v>12</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -3364,7 +3361,7 @@
         <v>18</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>20</v>
@@ -3379,7 +3376,7 @@
         <v>18</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>20</v>
@@ -3394,7 +3391,7 @@
         <v>18</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>20</v>
@@ -3471,7 +3468,7 @@
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
       <c r="H12" s="7">
         <v>1</v>
@@ -3480,13 +3477,13 @@
         <v>502</v>
       </c>
       <c r="J12" s="7" t="s">
+        <v>141</v>
+      </c>
+      <c r="K12" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="L12" s="7" t="s">
         <v>142</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L12" s="7" t="s">
-        <v>143</v>
       </c>
       <c r="M12" s="7">
         <v>1</v>
@@ -3495,13 +3492,13 @@
         <v>502</v>
       </c>
       <c r="O12" s="7" t="s">
+        <v>143</v>
+      </c>
+      <c r="P12" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="Q12" s="7" t="s">
         <v>144</v>
-      </c>
-      <c r="P12" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="Q12" s="7" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3531,13 +3528,13 @@
         <v>4094</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>78</v>
+        <v>148</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>68</v>
+        <v>149</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
       <c r="M13" s="7">
         <v>13</v>
@@ -3546,13 +3543,13 @@
         <v>8961</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -3567,13 +3564,13 @@
         <v>149689</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
       <c r="H14" s="7">
         <v>192</v>
@@ -3582,13 +3579,13 @@
         <v>124386</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>84</v>
+        <v>159</v>
       </c>
       <c r="M14" s="7">
         <v>408</v>
@@ -3597,13 +3594,13 @@
         <v>274076</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>159</v>
+        <v>162</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3677,7 +3674,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>71</v>
+        <v>34</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -3692,7 +3689,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -3707,7 +3704,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>74</v>
+        <v>164</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3722,13 +3719,13 @@
         <v>1494</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>162</v>
+        <v>166</v>
       </c>
       <c r="H17" s="7">
         <v>2</v>
@@ -3743,7 +3740,7 @@
         <v>11</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>163</v>
+        <v>167</v>
       </c>
       <c r="M17" s="7">
         <v>4</v>
@@ -3752,13 +3749,13 @@
         <v>2491</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>164</v>
+        <v>168</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>165</v>
+        <v>169</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>166</v>
+        <v>170</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -3773,10 +3770,10 @@
         <v>115290</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>168</v>
+        <v>172</v>
       </c>
       <c r="G18" s="7" t="s">
         <v>18</v>
@@ -3788,10 +3785,10 @@
         <v>103854</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>169</v>
+        <v>173</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>170</v>
+        <v>174</v>
       </c>
       <c r="L18" s="7" t="s">
         <v>18</v>
@@ -3803,13 +3800,13 @@
         <v>219143</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>171</v>
+        <v>175</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>172</v>
+        <v>176</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3865,7 +3862,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -3883,7 +3880,7 @@
         <v>11</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="H20" s="7">
         <v>1</v>
@@ -3892,13 +3889,13 @@
         <v>734</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>176</v>
+        <v>180</v>
       </c>
       <c r="M20" s="7">
         <v>3</v>
@@ -3907,13 +3904,13 @@
         <v>2203</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>178</v>
+        <v>182</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3928,13 +3925,13 @@
         <v>1988</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>179</v>
+        <v>183</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="H21" s="7">
         <v>6</v>
@@ -3943,13 +3940,13 @@
         <v>4545</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>94</v>
+        <v>185</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>181</v>
+        <v>186</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
       <c r="M21" s="7">
         <v>9</v>
@@ -3958,13 +3955,13 @@
         <v>6533</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>183</v>
+        <v>188</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>185</v>
+        <v>190</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -3979,13 +3976,13 @@
         <v>151484</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>186</v>
+        <v>191</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>82</v>
+        <v>192</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>187</v>
+        <v>193</v>
       </c>
       <c r="H22" s="7">
         <v>184</v>
@@ -3994,13 +3991,13 @@
         <v>140723</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>188</v>
+        <v>194</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>189</v>
+        <v>195</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>84</v>
+        <v>196</v>
       </c>
       <c r="M22" s="7">
         <v>391</v>
@@ -4009,13 +4006,13 @@
         <v>292207</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>66</v>
+        <v>197</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>190</v>
+        <v>198</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>191</v>
+        <v>199</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -4083,13 +4080,13 @@
         <v>1469</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>165</v>
+        <v>200</v>
       </c>
       <c r="F24" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>192</v>
+        <v>144</v>
       </c>
       <c r="H24" s="7">
         <v>2</v>
@@ -4098,13 +4095,13 @@
         <v>1236</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="K24" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>193</v>
+        <v>201</v>
       </c>
       <c r="M24" s="7">
         <v>4</v>
@@ -4113,13 +4110,13 @@
         <v>2705</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>165</v>
+        <v>200</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>194</v>
+        <v>202</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>77</v>
+        <v>203</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -4134,13 +4131,13 @@
         <v>8349</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>195</v>
+        <v>204</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>196</v>
+        <v>205</v>
       </c>
       <c r="H25" s="7">
         <v>14</v>
@@ -4149,13 +4146,13 @@
         <v>9636</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>197</v>
+        <v>206</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>198</v>
+        <v>149</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>199</v>
+        <v>207</v>
       </c>
       <c r="M25" s="7">
         <v>26</v>
@@ -4164,13 +4161,13 @@
         <v>17986</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>200</v>
+        <v>208</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>201</v>
+        <v>209</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>202</v>
+        <v>112</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -4185,13 +4182,13 @@
         <v>528963</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>203</v>
+        <v>210</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>204</v>
+        <v>211</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>205</v>
+        <v>212</v>
       </c>
       <c r="H26" s="7">
         <v>671</v>
@@ -4200,13 +4197,13 @@
         <v>466093</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>207</v>
+        <v>214</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>208</v>
+        <v>215</v>
       </c>
       <c r="M26" s="7">
         <v>1426</v>
@@ -4215,13 +4212,13 @@
         <v>995055</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>209</v>
+        <v>216</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>210</v>
+        <v>197</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>211</v>
+        <v>217</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -4277,7 +4274,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
   </sheetData>
@@ -4298,7 +4295,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D59B1F6D-9C98-4C1B-AEE6-E3A6926970BE}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AAE743B-4633-46F2-8F08-A539A8227210}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -4315,7 +4312,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>212</v>
+        <v>218</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4428,7 +4425,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -4443,7 +4440,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -4458,7 +4455,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4479,7 +4476,7 @@
         <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>213</v>
+        <v>219</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -4494,7 +4491,7 @@
         <v>12</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>214</v>
+        <v>220</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -4509,7 +4506,7 @@
         <v>12</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>215</v>
+        <v>221</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -4527,7 +4524,7 @@
         <v>18</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>216</v>
+        <v>222</v>
       </c>
       <c r="G6" s="7" t="s">
         <v>20</v>
@@ -4542,7 +4539,7 @@
         <v>18</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>217</v>
+        <v>223</v>
       </c>
       <c r="L6" s="7" t="s">
         <v>20</v>
@@ -4557,7 +4554,7 @@
         <v>18</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="Q6" s="7" t="s">
         <v>20</v>
@@ -4628,13 +4625,13 @@
         <v>678</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>219</v>
+        <v>225</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>220</v>
+        <v>226</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -4649,7 +4646,7 @@
         <v>12</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>221</v>
+        <v>227</v>
       </c>
       <c r="M8" s="7">
         <v>1</v>
@@ -4658,13 +4655,13 @@
         <v>678</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>179</v>
+        <v>228</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>222</v>
+        <v>229</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4685,7 +4682,7 @@
         <v>11</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>223</v>
+        <v>230</v>
       </c>
       <c r="H9" s="7">
         <v>2</v>
@@ -4694,13 +4691,13 @@
         <v>1276</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>150</v>
+        <v>231</v>
       </c>
       <c r="K9" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>224</v>
+        <v>232</v>
       </c>
       <c r="M9" s="7">
         <v>3</v>
@@ -4709,13 +4706,13 @@
         <v>2040</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>225</v>
+        <v>233</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>226</v>
+        <v>234</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>227</v>
+        <v>207</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -4730,10 +4727,10 @@
         <v>85554</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>228</v>
+        <v>235</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>229</v>
+        <v>236</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>18</v>
@@ -4745,10 +4742,10 @@
         <v>73879</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>230</v>
+        <v>237</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>231</v>
+        <v>238</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>18</v>
@@ -4760,13 +4757,13 @@
         <v>159433</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>232</v>
+        <v>239</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>233</v>
+        <v>240</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>234</v>
+        <v>241</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4840,7 +4837,7 @@
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>177</v>
+        <v>181</v>
       </c>
       <c r="H12" s="7">
         <v>1</v>
@@ -4849,13 +4846,13 @@
         <v>536</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>235</v>
+        <v>242</v>
       </c>
       <c r="K12" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>236</v>
+        <v>243</v>
       </c>
       <c r="M12" s="7">
         <v>1</v>
@@ -4864,13 +4861,13 @@
         <v>536</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>237</v>
+        <v>244</v>
       </c>
       <c r="P12" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>238</v>
+        <v>245</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4885,13 +4882,13 @@
         <v>2040</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>160</v>
+        <v>163</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>239</v>
+        <v>246</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>240</v>
+        <v>247</v>
       </c>
       <c r="H13" s="7">
         <v>2</v>
@@ -4900,13 +4897,13 @@
         <v>1145</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>241</v>
+        <v>248</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>242</v>
+        <v>249</v>
       </c>
       <c r="M13" s="7">
         <v>5</v>
@@ -4915,13 +4912,13 @@
         <v>3185</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>243</v>
+        <v>250</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>235</v>
+        <v>242</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>244</v>
+        <v>50</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -4936,13 +4933,13 @@
         <v>173263</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>245</v>
+        <v>251</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>246</v>
+        <v>252</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>247</v>
+        <v>253</v>
       </c>
       <c r="H14" s="7">
         <v>242</v>
@@ -4951,13 +4948,13 @@
         <v>150246</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>249</v>
+        <v>160</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="M14" s="7">
         <v>501</v>
@@ -4966,13 +4963,13 @@
         <v>323509</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>252</v>
+        <v>257</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>253</v>
+        <v>258</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -5046,7 +5043,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>254</v>
+        <v>144</v>
       </c>
       <c r="H16" s="7">
         <v>2</v>
@@ -5055,13 +5052,13 @@
         <v>1180</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>255</v>
+        <v>259</v>
       </c>
       <c r="K16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
       <c r="M16" s="7">
         <v>2</v>
@@ -5070,13 +5067,13 @@
         <v>1180</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>258</v>
+        <v>262</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5091,13 +5088,13 @@
         <v>1475</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>259</v>
+        <v>263</v>
       </c>
       <c r="F17" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>260</v>
+        <v>264</v>
       </c>
       <c r="H17" s="7">
         <v>7</v>
@@ -5106,13 +5103,13 @@
         <v>4021</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>261</v>
+        <v>265</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>25</v>
+        <v>266</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>262</v>
+        <v>267</v>
       </c>
       <c r="M17" s="7">
         <v>9</v>
@@ -5121,13 +5118,13 @@
         <v>5496</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>263</v>
+        <v>268</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>164</v>
+        <v>269</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>264</v>
+        <v>270</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -5142,10 +5139,10 @@
         <v>131372</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>248</v>
+        <v>254</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>265</v>
+        <v>271</v>
       </c>
       <c r="G18" s="7" t="s">
         <v>18</v>
@@ -5157,13 +5154,13 @@
         <v>111351</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>266</v>
+        <v>272</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>267</v>
+        <v>273</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>268</v>
+        <v>274</v>
       </c>
       <c r="M18" s="7">
         <v>382</v>
@@ -5172,13 +5169,13 @@
         <v>242723</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>269</v>
+        <v>275</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>270</v>
+        <v>276</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>271</v>
+        <v>199</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5234,7 +5231,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -5252,7 +5249,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>195</v>
+        <v>204</v>
       </c>
       <c r="H20" s="7">
         <v>1</v>
@@ -5261,13 +5258,13 @@
         <v>726</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>272</v>
+        <v>277</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>273</v>
+        <v>278</v>
       </c>
       <c r="M20" s="7">
         <v>1</v>
@@ -5276,13 +5273,13 @@
         <v>726</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>275</v>
+        <v>266</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5297,13 +5294,13 @@
         <v>2019</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>142</v>
+        <v>280</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>72</v>
+        <v>281</v>
       </c>
       <c r="H21" s="7">
         <v>4</v>
@@ -5312,13 +5309,13 @@
         <v>2914</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>276</v>
+        <v>282</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>278</v>
+        <v>284</v>
       </c>
       <c r="M21" s="7">
         <v>7</v>
@@ -5327,13 +5324,13 @@
         <v>4933</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>279</v>
+        <v>285</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>280</v>
+        <v>286</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>281</v>
+        <v>287</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -5348,13 +5345,13 @@
         <v>156189</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>167</v>
+        <v>171</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>80</v>
+        <v>288</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>282</v>
+        <v>289</v>
       </c>
       <c r="H22" s="7">
         <v>219</v>
@@ -5363,13 +5360,13 @@
         <v>163187</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>283</v>
+        <v>290</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>284</v>
+        <v>291</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>187</v>
+        <v>292</v>
       </c>
       <c r="M22" s="7">
         <v>442</v>
@@ -5378,13 +5375,13 @@
         <v>319376</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>285</v>
+        <v>293</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>286</v>
+        <v>294</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>287</v>
+        <v>41</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5452,13 +5449,13 @@
         <v>678</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="F24" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>288</v>
+        <v>283</v>
       </c>
       <c r="H24" s="7">
         <v>4</v>
@@ -5470,10 +5467,10 @@
         <v>48</v>
       </c>
       <c r="K24" s="7" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>289</v>
+        <v>295</v>
       </c>
       <c r="M24" s="7">
         <v>5</v>
@@ -5482,13 +5479,13 @@
         <v>3119</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>290</v>
+        <v>169</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>291</v>
+        <v>296</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>292</v>
+        <v>297</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -5506,10 +5503,10 @@
         <v>68</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>74</v>
+        <v>298</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>293</v>
+        <v>299</v>
       </c>
       <c r="H25" s="7">
         <v>15</v>
@@ -5518,13 +5515,13 @@
         <v>9356</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>294</v>
+        <v>243</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>295</v>
+        <v>300</v>
       </c>
       <c r="L25" s="7" t="s">
-        <v>296</v>
+        <v>287</v>
       </c>
       <c r="M25" s="7">
         <v>24</v>
@@ -5533,13 +5530,13 @@
         <v>15655</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>181</v>
+        <v>301</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>243</v>
+        <v>302</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -5554,13 +5551,13 @@
         <v>564056</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>298</v>
+        <v>303</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>63</v>
+        <v>304</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>299</v>
+        <v>305</v>
       </c>
       <c r="H26" s="7">
         <v>771</v>
@@ -5569,13 +5566,13 @@
         <v>513593</v>
       </c>
       <c r="J26" s="7" t="s">
-        <v>300</v>
+        <v>306</v>
       </c>
       <c r="K26" s="7" t="s">
-        <v>286</v>
+        <v>123</v>
       </c>
       <c r="L26" s="7" t="s">
-        <v>167</v>
+        <v>307</v>
       </c>
       <c r="M26" s="7">
         <v>1586</v>
@@ -5584,13 +5581,13 @@
         <v>1077649</v>
       </c>
       <c r="O26" s="7" t="s">
-        <v>301</v>
+        <v>308</v>
       </c>
       <c r="P26" s="7" t="s">
-        <v>302</v>
+        <v>309</v>
       </c>
       <c r="Q26" s="7" t="s">
-        <v>303</v>
+        <v>310</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -5646,7 +5643,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
   </sheetData>
@@ -5667,7 +5664,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4E67D998-69EF-4599-9654-3730F158C7CC}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8D2D029-B961-4CDE-BA4F-5BC2D1AC3551}">
   <dimension ref="A1:Q28"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -5684,7 +5681,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>304</v>
+        <v>311</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5797,7 +5794,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -5812,7 +5809,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>305</v>
+        <v>312</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -5827,7 +5824,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>306</v>
+        <v>313</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5848,7 +5845,7 @@
         <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>130</v>
+        <v>129</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -5863,7 +5860,7 @@
         <v>12</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>305</v>
+        <v>312</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -5878,7 +5875,7 @@
         <v>12</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>306</v>
+        <v>313</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
@@ -5896,7 +5893,7 @@
         <v>18</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="G6" s="7" t="s">
         <v>20</v>
@@ -5911,7 +5908,7 @@
         <v>18</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>307</v>
+        <v>314</v>
       </c>
       <c r="L6" s="7" t="s">
         <v>20</v>
@@ -5926,7 +5923,7 @@
         <v>18</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>308</v>
+        <v>315</v>
       </c>
       <c r="Q6" s="7" t="s">
         <v>20</v>
@@ -6003,7 +6000,7 @@
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>309</v>
+        <v>316</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -6018,7 +6015,7 @@
         <v>12</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>310</v>
+        <v>295</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -6033,7 +6030,7 @@
         <v>12</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>311</v>
+        <v>317</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6048,13 +6045,13 @@
         <v>491</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>312</v>
+        <v>318</v>
       </c>
       <c r="H9" s="7">
         <v>0</v>
@@ -6069,7 +6066,7 @@
         <v>12</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>310</v>
+        <v>295</v>
       </c>
       <c r="M9" s="7">
         <v>1</v>
@@ -6078,13 +6075,13 @@
         <v>491</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>274</v>
+        <v>279</v>
       </c>
       <c r="P9" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>313</v>
+        <v>319</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
@@ -6099,10 +6096,10 @@
         <v>114105</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>314</v>
+        <v>320</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>315</v>
+        <v>321</v>
       </c>
       <c r="G10" s="7" t="s">
         <v>18</v>
@@ -6117,7 +6114,7 @@
         <v>18</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>251</v>
+        <v>256</v>
       </c>
       <c r="L10" s="7" t="s">
         <v>20</v>
@@ -6129,10 +6126,10 @@
         <v>217999</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>316</v>
+        <v>322</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>208</v>
+        <v>323</v>
       </c>
       <c r="Q10" s="7" t="s">
         <v>18</v>
@@ -6203,13 +6200,13 @@
         <v>658</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="F12" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>317</v>
+        <v>75</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -6224,7 +6221,7 @@
         <v>12</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="M12" s="7">
         <v>1</v>
@@ -6233,13 +6230,13 @@
         <v>658</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>319</v>
+        <v>325</v>
       </c>
       <c r="P12" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6254,13 +6251,13 @@
         <v>888</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>226</v>
+        <v>234</v>
       </c>
       <c r="F13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>320</v>
+        <v>262</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -6275,7 +6272,7 @@
         <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>318</v>
+        <v>324</v>
       </c>
       <c r="M13" s="7">
         <v>1</v>
@@ -6284,13 +6281,13 @@
         <v>888</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>321</v>
+        <v>326</v>
       </c>
       <c r="P13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>160</v>
+        <v>189</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -6305,10 +6302,10 @@
         <v>248639</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>323</v>
+        <v>328</v>
       </c>
       <c r="G14" s="7" t="s">
         <v>18</v>
@@ -6323,7 +6320,7 @@
         <v>18</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>324</v>
+        <v>329</v>
       </c>
       <c r="L14" s="7" t="s">
         <v>20</v>
@@ -6335,10 +6332,10 @@
         <v>440991</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>250</v>
+        <v>255</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>325</v>
+        <v>330</v>
       </c>
       <c r="Q14" s="7" t="s">
         <v>18</v>
@@ -6415,7 +6412,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>195</v>
+        <v>204</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -6430,7 +6427,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>326</v>
+        <v>331</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -6445,7 +6442,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>179</v>
+        <v>228</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6466,7 +6463,7 @@
         <v>12</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>195</v>
+        <v>204</v>
       </c>
       <c r="H17" s="7">
         <v>3</v>
@@ -6475,13 +6472,13 @@
         <v>9921</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>327</v>
+        <v>332</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>175</v>
+        <v>333</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>328</v>
+        <v>334</v>
       </c>
       <c r="M17" s="7">
         <v>3</v>
@@ -6490,13 +6487,13 @@
         <v>9921</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>56</v>
+        <v>335</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>329</v>
+        <v>336</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>330</v>
+        <v>337</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -6514,7 +6511,7 @@
         <v>18</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>187</v>
+        <v>338</v>
       </c>
       <c r="G18" s="7" t="s">
         <v>20</v>
@@ -6526,13 +6523,13 @@
         <v>158814</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>331</v>
+        <v>339</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>332</v>
+        <v>340</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>333</v>
+        <v>341</v>
       </c>
       <c r="M18" s="7">
         <v>449</v>
@@ -6541,13 +6538,13 @@
         <v>332022</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>66</v>
+        <v>197</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>334</v>
+        <v>342</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>335</v>
+        <v>343</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -6603,7 +6600,7 @@
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -6615,13 +6612,13 @@
         <v>902</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>336</v>
+        <v>333</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>337</v>
+        <v>344</v>
       </c>
       <c r="H20" s="7">
         <v>1</v>
@@ -6630,13 +6627,13 @@
         <v>848</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>277</v>
+        <v>283</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>338</v>
+        <v>345</v>
       </c>
       <c r="M20" s="7">
         <v>2</v>
@@ -6645,13 +6642,13 @@
         <v>1750</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>175</v>
+        <v>179</v>
       </c>
       <c r="P20" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>339</v>
+        <v>346</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6669,10 +6666,10 @@
         <v>52</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>340</v>
+        <v>347</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>341</v>
+        <v>348</v>
       </c>
       <c r="H21" s="7">
         <v>5</v>
@@ -6681,13 +6678,13 @@
         <v>3075</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>342</v>
+        <v>262</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>343</v>
+        <v>324</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>344</v>
+        <v>349</v>
       </c>
       <c r="M21" s="7">
         <v>16</v>
@@ -6696,13 +6693,13 @@
         <v>11209</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>174</v>
+        <v>260</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>178</v>
+        <v>109</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>345</v>
+        <v>350</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
@@ -6717,13 +6714,13 @@
         <v>165981</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>218</v>
+        <v>224</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>346</v>
+        <v>351</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>347</v>
+        <v>66</v>
       </c>
       <c r="H22" s="7">
         <v>234</v>
@@ -6732,13 +6729,13 @@
         <v>168020</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>206</v>
+        <v>213</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>348</v>
+        <v>352</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>349</v>
+        <v>353</v>
       </c>
       <c r="M22" s="7">
         <v>460</v>
@@ -6747,13 +6744,13 @@
         <v>333999</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>350</v>
+        <v>214</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>351</v>
+        <v>354</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>352</v>
+        <v>355</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6821,13 +6818,13 @@
         <v>1560</v>
       </c>
       <c r="E24" s="7" t="s">
-        <v>353</v>
+        <v>356</v>
       </c>
       <c r="F24" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G24" s="7" t="s">
-        <v>26</v>
+        <v>28</v>
       </c>
       <c r="H24" s="7">
         <v>1</v>
@@ -6836,13 +6833,13 @@
         <v>848</v>
       </c>
       <c r="J24" s="7" t="s">
-        <v>354</v>
+        <v>336</v>
       </c>
       <c r="K24" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L24" s="7" t="s">
-        <v>343</v>
+        <v>357</v>
       </c>
       <c r="M24" s="7">
         <v>3</v>
@@ -6851,13 +6848,13 @@
         <v>2408</v>
       </c>
       <c r="O24" s="7" t="s">
-        <v>355</v>
+        <v>358</v>
       </c>
       <c r="P24" s="7" t="s">
-        <v>356</v>
+        <v>359</v>
       </c>
       <c r="Q24" s="7" t="s">
-        <v>70</v>
+        <v>179</v>
       </c>
     </row>
     <row r="25" spans="1:17" x14ac:dyDescent="0.3">
@@ -6872,13 +6869,13 @@
         <v>9513</v>
       </c>
       <c r="E25" s="7" t="s">
-        <v>146</v>
+        <v>360</v>
       </c>
       <c r="F25" s="7" t="s">
-        <v>357</v>
+        <v>324</v>
       </c>
       <c r="G25" s="7" t="s">
-        <v>358</v>
+        <v>278</v>
       </c>
       <c r="H25" s="7">
         <v>8</v>
@@ -6887,10 +6884,10 @@
         <v>12996</v>
       </c>
       <c r="J25" s="7" t="s">
-        <v>359</v>
+        <v>109</v>
       </c>
       <c r="K25" s="7" t="s">
-        <v>360</v>
+        <v>283</v>
       </c>
       <c r="L25" s="7" t="s">
         <v>361</v>
@@ -6902,13 +6899,13 @@
         <v>22509</v>
       </c>
       <c r="O25" s="7" t="s">
-        <v>91</v>
+        <v>362</v>
       </c>
       <c r="P25" s="7" t="s">
-        <v>362</v>
+        <v>331</v>
       </c>
       <c r="Q25" s="7" t="s">
-        <v>113</v>
+        <v>363</v>
       </c>
     </row>
     <row r="26" spans="1:17" x14ac:dyDescent="0.3">
@@ -6923,13 +6920,13 @@
         <v>714631</v>
       </c>
       <c r="E26" s="7" t="s">
-        <v>363</v>
+        <v>364</v>
       </c>
       <c r="F26" s="7" t="s">
-        <v>364</v>
+        <v>365</v>
       </c>
       <c r="G26" s="7" t="s">
-        <v>365</v>
+        <v>193</v>
       </c>
       <c r="H26" s="7">
         <v>934</v>
@@ -6938,13 +6935,13 @@
         <v>639867</v>
       </c>
       <c r="J26" s="7" t="s">
+        <v>321</v>
+      </c>
+      <c r="K26" s="7" t="s">
         <v>366</v>
       </c>
-      <c r="K26" s="7" t="s">
-        <v>367</v>
-      </c>
       <c r="L26" s="7" t="s">
-        <v>322</v>
+        <v>327</v>
       </c>
       <c r="M26" s="7">
         <v>1896</v>
@@ -6953,13 +6950,13 @@
         <v>1354498</v>
       </c>
       <c r="O26" s="7" t="s">
+        <v>367</v>
+      </c>
+      <c r="P26" s="7" t="s">
+        <v>291</v>
+      </c>
+      <c r="Q26" s="7" t="s">
         <v>368</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>369</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>205</v>
       </c>
     </row>
     <row r="27" spans="1:17" x14ac:dyDescent="0.3">
@@ -7015,7 +7012,7 @@
     </row>
     <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
   </sheetData>

--- a/data/trans_orig/P5B_R-Habitat-trans_orig.xlsx
+++ b/data/trans_orig/P5B_R-Habitat-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{16F14A89-CF41-4DC4-A6CA-C1143F02B48A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F9B2C1C0-019E-4401-BE86-15EECE9E5090}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{7A0218FB-ECCD-491B-B3A1-FE0FEAE657CC}"/>
+    <workbookView xWindow="2580" yWindow="2580" windowWidth="17280" windowHeight="8880" xr2:uid="{941B697F-FA8D-42AB-8D46-7567DA97AFF7}"/>
   </bookViews>
   <sheets>
     <sheet name="2007" sheetId="2" r:id="rId1"/>
@@ -39,15 +39,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1064" uniqueCount="369">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="900" uniqueCount="341">
   <si>
     <t>Hogares según si tienen calidad medioambiental mala o muy mala en la zona de residencia en 2007 (Tasa respuesta: 73,1%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -68,7 +68,7 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>&lt;2.000hab</t>
+    <t>&lt;10.000 hab</t>
   </si>
   <si>
     <t>Ns/Nc</t>
@@ -80,1072 +80,988 @@
     <t>0%</t>
   </si>
   <si>
-    <t>6,15%</t>
-  </si>
-  <si>
-    <t>7,32%</t>
-  </si>
-  <si>
-    <t>3,42%</t>
+    <t>1,25%</t>
+  </si>
+  <si>
+    <t>1,11%</t>
+  </si>
+  <si>
+    <t>0,59%</t>
   </si>
   <si>
     <t>Sí</t>
   </si>
   <si>
+    <t>2,0%</t>
+  </si>
+  <si>
+    <t>0,65%</t>
+  </si>
+  <si>
+    <t>6,03%</t>
+  </si>
+  <si>
+    <t>2,11%</t>
+  </si>
+  <si>
+    <t>0,51%</t>
+  </si>
+  <si>
+    <t>5,27%</t>
+  </si>
+  <si>
+    <t>2,06%</t>
+  </si>
+  <si>
+    <t>0,92%</t>
+  </si>
+  <si>
+    <t>4,12%</t>
+  </si>
+  <si>
     <t>No</t>
   </si>
   <si>
+    <t>98,0%</t>
+  </si>
+  <si>
+    <t>93,97%</t>
+  </si>
+  <si>
+    <t>99,35%</t>
+  </si>
+  <si>
+    <t>97,89%</t>
+  </si>
+  <si>
+    <t>94,73%</t>
+  </si>
+  <si>
+    <t>99,49%</t>
+  </si>
+  <si>
+    <t>97,94%</t>
+  </si>
+  <si>
+    <t>95,88%</t>
+  </si>
+  <si>
+    <t>99,08%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>10-50.000 hab</t>
+  </si>
+  <si>
+    <t>0,95%</t>
+  </si>
+  <si>
+    <t>0,88%</t>
+  </si>
+  <si>
+    <t>0,46%</t>
+  </si>
+  <si>
+    <t>4,65%</t>
+  </si>
+  <si>
+    <t>2,13%</t>
+  </si>
+  <si>
+    <t>8,4%</t>
+  </si>
+  <si>
+    <t>4,61%</t>
+  </si>
+  <si>
+    <t>2,34%</t>
+  </si>
+  <si>
+    <t>8,25%</t>
+  </si>
+  <si>
+    <t>4,63%</t>
+  </si>
+  <si>
+    <t>2,87%</t>
+  </si>
+  <si>
+    <t>6,83%</t>
+  </si>
+  <si>
+    <t>95,35%</t>
+  </si>
+  <si>
+    <t>91,6%</t>
+  </si>
+  <si>
+    <t>97,87%</t>
+  </si>
+  <si>
+    <t>95,39%</t>
+  </si>
+  <si>
+    <t>91,75%</t>
+  </si>
+  <si>
+    <t>97,66%</t>
+  </si>
+  <si>
+    <t>95,37%</t>
+  </si>
+  <si>
+    <t>93,17%</t>
+  </si>
+  <si>
+    <t>97,13%</t>
+  </si>
+  <si>
+    <t>&gt;50.000 hab</t>
+  </si>
+  <si>
+    <t>1,08%</t>
+  </si>
+  <si>
+    <t>1,1%</t>
+  </si>
+  <si>
+    <t>0,55%</t>
+  </si>
+  <si>
+    <t>2,05%</t>
+  </si>
+  <si>
+    <t>0,56%</t>
+  </si>
+  <si>
+    <t>5,09%</t>
+  </si>
+  <si>
+    <t>1,07%</t>
+  </si>
+  <si>
+    <t>3,85%</t>
+  </si>
+  <si>
+    <t>1,55%</t>
+  </si>
+  <si>
+    <t>0,53%</t>
+  </si>
+  <si>
+    <t>3,22%</t>
+  </si>
+  <si>
+    <t>97,95%</t>
+  </si>
+  <si>
+    <t>94,91%</t>
+  </si>
+  <si>
+    <t>99,44%</t>
+  </si>
+  <si>
+    <t>98,93%</t>
+  </si>
+  <si>
+    <t>96,15%</t>
+  </si>
+  <si>
     <t>100,0%</t>
   </si>
   <si>
-    <t>93,85%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>92,68%</t>
-  </si>
-  <si>
-    <t>96,58%</t>
-  </si>
-  <si>
-    <t>2-10.000 hab</t>
-  </si>
-  <si>
-    <t>1,34%</t>
-  </si>
-  <si>
-    <t>1,5%</t>
-  </si>
-  <si>
-    <t>0,71%</t>
-  </si>
-  <si>
-    <t>2,64%</t>
+    <t>98,45%</t>
+  </si>
+  <si>
+    <t>96,78%</t>
+  </si>
+  <si>
+    <t>99,47%</t>
+  </si>
+  <si>
+    <t>Capitales</t>
+  </si>
+  <si>
+    <t>0,83%</t>
+  </si>
+  <si>
+    <t>0,43%</t>
+  </si>
+  <si>
+    <t>5,54%</t>
+  </si>
+  <si>
+    <t>9,86%</t>
+  </si>
+  <si>
+    <t>3,65%</t>
+  </si>
+  <si>
+    <t>1,6%</t>
+  </si>
+  <si>
+    <t>6,45%</t>
+  </si>
+  <si>
+    <t>4,62%</t>
+  </si>
+  <si>
+    <t>2,86%</t>
+  </si>
+  <si>
+    <t>6,91%</t>
+  </si>
+  <si>
+    <t>94,46%</t>
+  </si>
+  <si>
+    <t>90,14%</t>
+  </si>
+  <si>
+    <t>96,35%</t>
+  </si>
+  <si>
+    <t>93,55%</t>
+  </si>
+  <si>
+    <t>98,4%</t>
+  </si>
+  <si>
+    <t>95,38%</t>
+  </si>
+  <si>
+    <t>93,09%</t>
+  </si>
+  <si>
+    <t>97,14%</t>
+  </si>
+  <si>
+    <t>0,26%</t>
+  </si>
+  <si>
+    <t>0,24%</t>
+  </si>
+  <si>
+    <t>0,12%</t>
+  </si>
+  <si>
+    <t>3,83%</t>
+  </si>
+  <si>
+    <t>2,59%</t>
+  </si>
+  <si>
+    <t>5,46%</t>
+  </si>
+  <si>
+    <t>3,01%</t>
+  </si>
+  <si>
+    <t>1,86%</t>
+  </si>
+  <si>
+    <t>4,41%</t>
+  </si>
+  <si>
+    <t>3,41%</t>
+  </si>
+  <si>
+    <t>2,53%</t>
+  </si>
+  <si>
+    <t>4,31%</t>
+  </si>
+  <si>
+    <t>96,17%</t>
+  </si>
+  <si>
+    <t>94,54%</t>
+  </si>
+  <si>
+    <t>97,41%</t>
+  </si>
+  <si>
+    <t>96,99%</t>
+  </si>
+  <si>
+    <t>95,59%</t>
+  </si>
+  <si>
+    <t>98,14%</t>
+  </si>
+  <si>
+    <t>96,59%</t>
+  </si>
+  <si>
+    <t>95,69%</t>
+  </si>
+  <si>
+    <t>97,47%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
+  </si>
+  <si>
+    <t>Hogares según si tienen calidad medioambiental mala o muy mala en la zona de residencia en 2012 (Tasa respuesta: 69,37%)</t>
+  </si>
+  <si>
+    <t>1,43%</t>
+  </si>
+  <si>
+    <t>1,22%</t>
+  </si>
+  <si>
+    <t>0,66%</t>
+  </si>
+  <si>
+    <t>98,57%</t>
+  </si>
+  <si>
+    <t>98,78%</t>
+  </si>
+  <si>
+    <t>99,34%</t>
+  </si>
+  <si>
+    <t>0,39%</t>
+  </si>
+  <si>
+    <t>1,79%</t>
+  </si>
+  <si>
+    <t>0,86%</t>
+  </si>
+  <si>
+    <t>0,18%</t>
+  </si>
+  <si>
+    <t>0,89%</t>
+  </si>
+  <si>
+    <t>3,17%</t>
+  </si>
+  <si>
+    <t>3,15%</t>
+  </si>
+  <si>
+    <t>1,3%</t>
+  </si>
+  <si>
+    <t>6,5%</t>
+  </si>
+  <si>
+    <t>3,16%</t>
+  </si>
+  <si>
+    <t>1,71%</t>
+  </si>
+  <si>
+    <t>5,04%</t>
+  </si>
+  <si>
+    <t>96,44%</t>
+  </si>
+  <si>
+    <t>93,05%</t>
+  </si>
+  <si>
+    <t>98,51%</t>
+  </si>
+  <si>
+    <t>96,85%</t>
+  </si>
+  <si>
+    <t>93,5%</t>
+  </si>
+  <si>
+    <t>98,7%</t>
+  </si>
+  <si>
+    <t>96,66%</t>
+  </si>
+  <si>
+    <t>1,16%</t>
+  </si>
+  <si>
+    <t>3,33%</t>
+  </si>
+  <si>
+    <t>1,28%</t>
+  </si>
+  <si>
+    <t>4,26%</t>
+  </si>
+  <si>
+    <t>1,12%</t>
+  </si>
+  <si>
+    <t>0,4%</t>
+  </si>
+  <si>
+    <t>2,91%</t>
+  </si>
+  <si>
+    <t>99,05%</t>
+  </si>
+  <si>
+    <t>96,67%</t>
+  </si>
+  <si>
+    <t>98,72%</t>
+  </si>
+  <si>
+    <t>95,74%</t>
+  </si>
+  <si>
+    <t>98,88%</t>
+  </si>
+  <si>
+    <t>97,09%</t>
+  </si>
+  <si>
+    <t>99,6%</t>
+  </si>
+  <si>
+    <t>0,5%</t>
+  </si>
+  <si>
+    <t>2,75%</t>
+  </si>
+  <si>
+    <t>2,88%</t>
+  </si>
+  <si>
+    <t>0,73%</t>
+  </si>
+  <si>
+    <t>1,94%</t>
+  </si>
+  <si>
+    <t>3,11%</t>
+  </si>
+  <si>
+    <t>1,51%</t>
+  </si>
+  <si>
+    <t>7,08%</t>
+  </si>
+  <si>
+    <t>0,41%</t>
+  </si>
+  <si>
+    <t>3,45%</t>
+  </si>
+  <si>
+    <t>2,17%</t>
+  </si>
+  <si>
+    <t>1,17%</t>
+  </si>
+  <si>
+    <t>3,9%</t>
+  </si>
+  <si>
+    <t>96,38%</t>
+  </si>
+  <si>
+    <t>92,74%</t>
+  </si>
+  <si>
+    <t>98,42%</t>
+  </si>
+  <si>
+    <t>97,77%</t>
+  </si>
+  <si>
+    <t>95,5%</t>
+  </si>
+  <si>
+    <t>99,15%</t>
+  </si>
+  <si>
+    <t>97,1%</t>
+  </si>
+  <si>
+    <t>95,08%</t>
+  </si>
+  <si>
+    <t>98,33%</t>
+  </si>
+  <si>
+    <t>1,01%</t>
+  </si>
+  <si>
+    <t>0,27%</t>
+  </si>
+  <si>
+    <t>0,82%</t>
+  </si>
+  <si>
+    <t>0,07%</t>
+  </si>
+  <si>
+    <t>0,6%</t>
+  </si>
+  <si>
+    <t>2,02%</t>
+  </si>
+  <si>
+    <t>3,13%</t>
+  </si>
+  <si>
+    <t>1,77%</t>
+  </si>
+  <si>
+    <t>2,54%</t>
+  </si>
+  <si>
+    <t>97,72%</t>
+  </si>
+  <si>
+    <t>96,4%</t>
+  </si>
+  <si>
+    <t>98,68%</t>
+  </si>
+  <si>
+    <t>98,18%</t>
+  </si>
+  <si>
+    <t>98,95%</t>
+  </si>
+  <si>
+    <t>97,96%</t>
+  </si>
+  <si>
+    <t>97,15%</t>
+  </si>
+  <si>
+    <t>98,64%</t>
+  </si>
+  <si>
+    <t>Hogares según si tienen calidad medioambiental mala o muy mala en la zona de residencia en 2016 (Tasa respuesta: 75,96%)</t>
+  </si>
+  <si>
+    <t>3,62%</t>
+  </si>
+  <si>
+    <t>0,35%</t>
+  </si>
+  <si>
+    <t>1,75%</t>
+  </si>
+  <si>
+    <t>1,42%</t>
+  </si>
+  <si>
+    <t>4,49%</t>
+  </si>
+  <si>
+    <t>3,02%</t>
+  </si>
+  <si>
+    <t>1,05%</t>
+  </si>
+  <si>
+    <t>0,3%</t>
+  </si>
+  <si>
+    <t>98,58%</t>
+  </si>
+  <si>
+    <t>95,51%</t>
+  </si>
+  <si>
+    <t>98,62%</t>
+  </si>
+  <si>
+    <t>95,17%</t>
+  </si>
+  <si>
+    <t>98,6%</t>
+  </si>
+  <si>
+    <t>96,45%</t>
+  </si>
+  <si>
+    <t>99,65%</t>
+  </si>
+  <si>
+    <t>0,16%</t>
+  </si>
+  <si>
+    <t>0,75%</t>
+  </si>
+  <si>
+    <t>2,28%</t>
+  </si>
+  <si>
+    <t>0,33%</t>
+  </si>
+  <si>
+    <t>0,97%</t>
+  </si>
+  <si>
+    <t>0,36%</t>
+  </si>
+  <si>
+    <t>2,35%</t>
+  </si>
+  <si>
+    <t>98,89%</t>
+  </si>
+  <si>
+    <t>97,24%</t>
+  </si>
+  <si>
+    <t>98,84%</t>
+  </si>
+  <si>
+    <t>99,67%</t>
+  </si>
+  <si>
+    <t>98,86%</t>
+  </si>
+  <si>
+    <t>97,56%</t>
+  </si>
+  <si>
+    <t>99,58%</t>
+  </si>
+  <si>
+    <t>0,96%</t>
+  </si>
+  <si>
+    <t>0,47%</t>
+  </si>
+  <si>
+    <t>1,69%</t>
+  </si>
+  <si>
+    <t>1,49%</t>
+  </si>
+  <si>
+    <t>6,69%</t>
+  </si>
+  <si>
+    <t>4,33%</t>
+  </si>
+  <si>
+    <t>2,2%</t>
+  </si>
+  <si>
+    <t>4,04%</t>
+  </si>
+  <si>
+    <t>95,54%</t>
+  </si>
+  <si>
+    <t>91,83%</t>
+  </si>
+  <si>
+    <t>97,92%</t>
+  </si>
+  <si>
+    <t>95,67%</t>
+  </si>
+  <si>
+    <t>97,32%</t>
+  </si>
+  <si>
+    <t>95,28%</t>
+  </si>
+  <si>
+    <t>98,63%</t>
+  </si>
+  <si>
+    <t>0,44%</t>
+  </si>
+  <si>
+    <t>2,72%</t>
+  </si>
+  <si>
+    <t>0,85%</t>
+  </si>
+  <si>
+    <t>0,22%</t>
+  </si>
+  <si>
+    <t>0,38%</t>
+  </si>
+  <si>
+    <t>3,7%</t>
+  </si>
+  <si>
+    <t>1,52%</t>
+  </si>
+  <si>
+    <t>0,64%</t>
+  </si>
+  <si>
+    <t>2,98%</t>
+  </si>
+  <si>
+    <t>97,82%</t>
+  </si>
+  <si>
+    <t>95,03%</t>
+  </si>
+  <si>
+    <t>99,19%</t>
+  </si>
+  <si>
+    <t>96,3%</t>
+  </si>
+  <si>
+    <t>99,62%</t>
+  </si>
+  <si>
+    <t>98,26%</t>
+  </si>
+  <si>
+    <t>96,63%</t>
+  </si>
+  <si>
+    <t>99,17%</t>
+  </si>
+  <si>
+    <t>0,77%</t>
+  </si>
+  <si>
+    <t>0,28%</t>
+  </si>
+  <si>
+    <t>0,11%</t>
+  </si>
+  <si>
+    <t>1,78%</t>
+  </si>
+  <si>
+    <t>1,02%</t>
+  </si>
+  <si>
+    <t>2,77%</t>
+  </si>
+  <si>
+    <t>0,57%</t>
+  </si>
+  <si>
+    <t>2,09%</t>
+  </si>
+  <si>
+    <t>0,98%</t>
+  </si>
+  <si>
+    <t>97,75%</t>
+  </si>
+  <si>
+    <t>96,74%</t>
+  </si>
+  <si>
+    <t>98,61%</t>
+  </si>
+  <si>
+    <t>99,36%</t>
+  </si>
+  <si>
+    <t>98,29%</t>
+  </si>
+  <si>
+    <t>97,55%</t>
+  </si>
+  <si>
+    <t>98,8%</t>
+  </si>
+  <si>
+    <t>Hogares según si tienen calidad medioambiental mala o muy mala en la zona de residencia en 2023 (Tasa respuesta: 100,0%)</t>
+  </si>
+  <si>
+    <t>0,52%</t>
+  </si>
+  <si>
+    <t>1,89%</t>
+  </si>
+  <si>
+    <t>0,19%</t>
+  </si>
+  <si>
+    <t>99,03%</t>
+  </si>
+  <si>
+    <t>98,11%</t>
+  </si>
+  <si>
+    <t>99,81%</t>
+  </si>
+  <si>
+    <t>98,99%</t>
+  </si>
+  <si>
+    <t>0,68%</t>
+  </si>
+  <si>
+    <t>0,37%</t>
+  </si>
+  <si>
+    <t>2,42%</t>
+  </si>
+  <si>
+    <t>0,21%</t>
+  </si>
+  <si>
+    <t>99,32%</t>
+  </si>
+  <si>
+    <t>97,4%</t>
+  </si>
+  <si>
+    <t>99,63%</t>
+  </si>
+  <si>
+    <t>98,69%</t>
+  </si>
+  <si>
+    <t>0,84%</t>
+  </si>
+  <si>
+    <t>0,42%</t>
+  </si>
+  <si>
+    <t>14,83%</t>
+  </si>
+  <si>
+    <t>48,08%</t>
+  </si>
+  <si>
+    <t>7,51%</t>
+  </si>
+  <si>
+    <t>28,7%</t>
+  </si>
+  <si>
+    <t>85,17%</t>
+  </si>
+  <si>
+    <t>51,92%</t>
+  </si>
+  <si>
+    <t>99,73%</t>
+  </si>
+  <si>
+    <t>92,49%</t>
+  </si>
+  <si>
+    <t>71,3%</t>
+  </si>
+  <si>
+    <t>99,76%</t>
+  </si>
+  <si>
+    <t>0,45%</t>
+  </si>
+  <si>
+    <t>2,27%</t>
+  </si>
+  <si>
+    <t>2,62%</t>
+  </si>
+  <si>
+    <t>0,49%</t>
+  </si>
+  <si>
+    <t>1,8%</t>
+  </si>
+  <si>
+    <t>1,82%</t>
+  </si>
+  <si>
+    <t>4,21%</t>
+  </si>
+  <si>
+    <t>4,59%</t>
+  </si>
+  <si>
+    <t>8,07%</t>
+  </si>
+  <si>
+    <t>3,26%</t>
+  </si>
+  <si>
+    <t>1,93%</t>
+  </si>
+  <si>
+    <t>5,47%</t>
+  </si>
+  <si>
+    <t>97,73%</t>
+  </si>
+  <si>
+    <t>94,83%</t>
+  </si>
+  <si>
+    <t>94,89%</t>
+  </si>
+  <si>
+    <t>91,23%</t>
+  </si>
+  <si>
+    <t>97,26%</t>
+  </si>
+  <si>
+    <t>96,26%</t>
+  </si>
+  <si>
+    <t>93,91%</t>
   </si>
   <si>
     <t>0,7%</t>
   </si>
   <si>
-    <t>6,06%</t>
-  </si>
-  <si>
-    <t>2,44%</t>
-  </si>
-  <si>
-    <t>0,79%</t>
-  </si>
-  <si>
-    <t>6,56%</t>
-  </si>
-  <si>
-    <t>2,55%</t>
-  </si>
-  <si>
-    <t>1,07%</t>
-  </si>
-  <si>
-    <t>4,78%</t>
-  </si>
-  <si>
-    <t>97,36%</t>
-  </si>
-  <si>
-    <t>93,94%</t>
-  </si>
-  <si>
-    <t>99,3%</t>
-  </si>
-  <si>
-    <t>97,56%</t>
-  </si>
-  <si>
-    <t>93,44%</t>
-  </si>
-  <si>
-    <t>99,21%</t>
-  </si>
-  <si>
-    <t>97,45%</t>
-  </si>
-  <si>
-    <t>95,22%</t>
-  </si>
-  <si>
-    <t>98,93%</t>
-  </si>
-  <si>
-    <t>10-50.000 hab</t>
-  </si>
-  <si>
-    <t>0,88%</t>
-  </si>
-  <si>
-    <t>0,95%</t>
-  </si>
-  <si>
-    <t>0,46%</t>
-  </si>
-  <si>
-    <t>4,61%</t>
-  </si>
-  <si>
-    <t>2,36%</t>
-  </si>
-  <si>
-    <t>8,39%</t>
-  </si>
-  <si>
-    <t>4,65%</t>
-  </si>
-  <si>
-    <t>2,14%</t>
-  </si>
-  <si>
-    <t>8,54%</t>
-  </si>
-  <si>
-    <t>4,63%</t>
-  </si>
-  <si>
-    <t>2,91%</t>
-  </si>
-  <si>
-    <t>7,16%</t>
-  </si>
-  <si>
-    <t>95,39%</t>
-  </si>
-  <si>
-    <t>91,61%</t>
-  </si>
-  <si>
-    <t>97,64%</t>
-  </si>
-  <si>
-    <t>95,35%</t>
-  </si>
-  <si>
-    <t>91,46%</t>
-  </si>
-  <si>
-    <t>97,86%</t>
-  </si>
-  <si>
-    <t>95,37%</t>
-  </si>
-  <si>
-    <t>92,84%</t>
-  </si>
-  <si>
-    <t>97,09%</t>
-  </si>
-  <si>
-    <t>&gt;50.000hab</t>
-  </si>
-  <si>
-    <t>1,1%</t>
-  </si>
-  <si>
-    <t>1,08%</t>
-  </si>
-  <si>
-    <t>0,55%</t>
-  </si>
-  <si>
-    <t>3,75%</t>
-  </si>
-  <si>
-    <t>2,05%</t>
-  </si>
-  <si>
-    <t>0,58%</t>
-  </si>
-  <si>
-    <t>5,14%</t>
-  </si>
-  <si>
-    <t>1,55%</t>
-  </si>
-  <si>
-    <t>3,38%</t>
-  </si>
-  <si>
-    <t>96,25%</t>
-  </si>
-  <si>
-    <t>97,95%</t>
-  </si>
-  <si>
-    <t>94,86%</t>
-  </si>
-  <si>
-    <t>99,42%</t>
-  </si>
-  <si>
-    <t>98,45%</t>
-  </si>
-  <si>
-    <t>96,62%</t>
-  </si>
-  <si>
-    <t>99,45%</t>
-  </si>
-  <si>
-    <t>Capitales</t>
-  </si>
-  <si>
-    <t>0,83%</t>
-  </si>
-  <si>
-    <t>0,43%</t>
-  </si>
-  <si>
-    <t>3,65%</t>
-  </si>
-  <si>
-    <t>1,65%</t>
-  </si>
-  <si>
-    <t>6,55%</t>
-  </si>
-  <si>
-    <t>5,54%</t>
-  </si>
-  <si>
-    <t>3,09%</t>
-  </si>
-  <si>
-    <t>9,52%</t>
-  </si>
-  <si>
-    <t>4,62%</t>
-  </si>
-  <si>
-    <t>3,03%</t>
-  </si>
-  <si>
-    <t>7,02%</t>
-  </si>
-  <si>
-    <t>96,35%</t>
-  </si>
-  <si>
-    <t>93,45%</t>
-  </si>
-  <si>
-    <t>98,35%</t>
-  </si>
-  <si>
-    <t>94,46%</t>
-  </si>
-  <si>
-    <t>90,48%</t>
-  </si>
-  <si>
-    <t>96,91%</t>
-  </si>
-  <si>
-    <t>95,38%</t>
-  </si>
-  <si>
-    <t>92,98%</t>
-  </si>
-  <si>
-    <t>96,97%</t>
-  </si>
-  <si>
-    <t>0,24%</t>
-  </si>
-  <si>
-    <t>0,26%</t>
-  </si>
-  <si>
-    <t>0,12%</t>
-  </si>
-  <si>
-    <t>3,01%</t>
-  </si>
-  <si>
-    <t>1,99%</t>
-  </si>
-  <si>
-    <t>4,57%</t>
-  </si>
-  <si>
-    <t>3,83%</t>
-  </si>
-  <si>
-    <t>2,53%</t>
-  </si>
-  <si>
-    <t>5,32%</t>
-  </si>
-  <si>
-    <t>3,41%</t>
-  </si>
-  <si>
-    <t>2,62%</t>
-  </si>
-  <si>
-    <t>4,42%</t>
-  </si>
-  <si>
-    <t>96,99%</t>
-  </si>
-  <si>
-    <t>95,43%</t>
-  </si>
-  <si>
-    <t>98,01%</t>
-  </si>
-  <si>
-    <t>96,17%</t>
-  </si>
-  <si>
-    <t>94,68%</t>
-  </si>
-  <si>
-    <t>97,47%</t>
-  </si>
-  <si>
-    <t>96,59%</t>
-  </si>
-  <si>
-    <t>95,58%</t>
-  </si>
-  <si>
-    <t>97,38%</t>
-  </si>
-  <si>
-    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
-  </si>
-  <si>
-    <t>Hogares según si tienen calidad medioambiental mala o muy mala en la zona de residencia en 2012 (Tasa respuesta: 69,37%)</t>
-  </si>
-  <si>
-    <t>9,99%</t>
-  </si>
-  <si>
-    <t>9,49%</t>
-  </si>
-  <si>
-    <t>5,03%</t>
-  </si>
-  <si>
-    <t>90,01%</t>
-  </si>
-  <si>
-    <t>90,51%</t>
-  </si>
-  <si>
-    <t>94,97%</t>
-  </si>
-  <si>
-    <t>1,38%</t>
-  </si>
-  <si>
-    <t>1,67%</t>
-  </si>
-  <si>
-    <t>0,76%</t>
-  </si>
-  <si>
-    <t>98,62%</t>
-  </si>
-  <si>
-    <t>98,33%</t>
-  </si>
-  <si>
-    <t>99,24%</t>
-  </si>
-  <si>
-    <t>0,86%</t>
-  </si>
-  <si>
-    <t>0,39%</t>
-  </si>
-  <si>
-    <t>1,96%</t>
-  </si>
-  <si>
-    <t>0,18%</t>
-  </si>
-  <si>
-    <t>0,96%</t>
-  </si>
-  <si>
-    <t>3,15%</t>
-  </si>
-  <si>
-    <t>1,29%</t>
-  </si>
-  <si>
-    <t>6,12%</t>
-  </si>
-  <si>
-    <t>3,17%</t>
-  </si>
-  <si>
-    <t>1,09%</t>
-  </si>
-  <si>
-    <t>6,85%</t>
-  </si>
-  <si>
-    <t>3,16%</t>
-  </si>
-  <si>
-    <t>1,69%</t>
-  </si>
-  <si>
-    <t>5,15%</t>
-  </si>
-  <si>
-    <t>96,85%</t>
-  </si>
-  <si>
-    <t>93,88%</t>
-  </si>
-  <si>
-    <t>98,71%</t>
-  </si>
-  <si>
-    <t>96,44%</t>
-  </si>
-  <si>
-    <t>92,91%</t>
-  </si>
-  <si>
-    <t>98,52%</t>
-  </si>
-  <si>
-    <t>96,66%</t>
-  </si>
-  <si>
-    <t>94,54%</t>
-  </si>
-  <si>
-    <t>98,14%</t>
-  </si>
-  <si>
-    <t>1,16%</t>
-  </si>
-  <si>
-    <t>0,56%</t>
-  </si>
-  <si>
-    <t>1,28%</t>
-  </si>
-  <si>
-    <t>4,54%</t>
-  </si>
-  <si>
-    <t>2,93%</t>
-  </si>
-  <si>
-    <t>1,12%</t>
-  </si>
-  <si>
-    <t>0,28%</t>
-  </si>
-  <si>
-    <t>2,74%</t>
-  </si>
-  <si>
-    <t>98,72%</t>
-  </si>
-  <si>
-    <t>95,46%</t>
-  </si>
-  <si>
-    <t>99,05%</t>
-  </si>
-  <si>
-    <t>97,07%</t>
-  </si>
-  <si>
-    <t>98,88%</t>
-  </si>
-  <si>
-    <t>97,26%</t>
-  </si>
-  <si>
-    <t>99,72%</t>
-  </si>
-  <si>
-    <t>3,62%</t>
-  </si>
-  <si>
-    <t>0,5%</t>
-  </si>
-  <si>
-    <t>2,8%</t>
-  </si>
-  <si>
-    <t>0,73%</t>
-  </si>
-  <si>
-    <t>1,94%</t>
-  </si>
-  <si>
-    <t>0,41%</t>
-  </si>
-  <si>
-    <t>3,67%</t>
-  </si>
-  <si>
-    <t>3,11%</t>
-  </si>
-  <si>
-    <t>1,04%</t>
-  </si>
-  <si>
-    <t>6,3%</t>
-  </si>
-  <si>
-    <t>2,17%</t>
-  </si>
-  <si>
-    <t>1,03%</t>
-  </si>
-  <si>
-    <t>4,07%</t>
-  </si>
-  <si>
-    <t>97,77%</t>
-  </si>
-  <si>
-    <t>94,73%</t>
+    <t>0,17%</t>
+  </si>
+  <si>
+    <t>0,05%</t>
+  </si>
+  <si>
+    <t>0,48%</t>
+  </si>
+  <si>
+    <t>4,7%</t>
+  </si>
+  <si>
+    <t>19,72%</t>
+  </si>
+  <si>
+    <t>0,87%</t>
+  </si>
+  <si>
+    <t>9,57%</t>
+  </si>
+  <si>
+    <t>95,19%</t>
+  </si>
+  <si>
+    <t>80,07%</t>
+  </si>
+  <si>
+    <t>99,38%</t>
+  </si>
+  <si>
+    <t>97,58%</t>
   </si>
   <si>
     <t>99,14%</t>
   </si>
   <si>
-    <t>96,38%</t>
-  </si>
-  <si>
-    <t>93,24%</t>
-  </si>
-  <si>
-    <t>98,51%</t>
-  </si>
-  <si>
-    <t>97,1%</t>
-  </si>
-  <si>
-    <t>95,12%</t>
-  </si>
-  <si>
-    <t>98,53%</t>
-  </si>
-  <si>
-    <t>0,27%</t>
-  </si>
-  <si>
-    <t>0,9%</t>
-  </si>
-  <si>
-    <t>0,07%</t>
-  </si>
-  <si>
-    <t>0,63%</t>
-  </si>
-  <si>
-    <t>0,85%</t>
-  </si>
-  <si>
-    <t>2,66%</t>
-  </si>
-  <si>
-    <t>2,02%</t>
-  </si>
-  <si>
-    <t>3,4%</t>
-  </si>
-  <si>
-    <t>1,77%</t>
-  </si>
-  <si>
-    <t>1,2%</t>
-  </si>
-  <si>
-    <t>98,18%</t>
-  </si>
-  <si>
-    <t>97,12%</t>
-  </si>
-  <si>
-    <t>99,0%</t>
-  </si>
-  <si>
-    <t>97,72%</t>
-  </si>
-  <si>
-    <t>96,27%</t>
-  </si>
-  <si>
-    <t>98,7%</t>
-  </si>
-  <si>
-    <t>97,96%</t>
-  </si>
-  <si>
-    <t>98,57%</t>
-  </si>
-  <si>
-    <t>Hogares según si tienen calidad medioambiental mala o muy mala en la zona de residencia en 2016 (Tasa respuesta: 75,96%)</t>
-  </si>
-  <si>
-    <t>8,64%</t>
-  </si>
-  <si>
-    <t>11,83%</t>
-  </si>
-  <si>
-    <t>5,16%</t>
-  </si>
-  <si>
-    <t>91,36%</t>
-  </si>
-  <si>
-    <t>88,17%</t>
-  </si>
-  <si>
-    <t>94,84%</t>
-  </si>
-  <si>
-    <t>0,78%</t>
-  </si>
-  <si>
-    <t>4,7%</t>
-  </si>
-  <si>
-    <t>1,71%</t>
-  </si>
-  <si>
-    <t>0,42%</t>
-  </si>
-  <si>
-    <t>2,21%</t>
-  </si>
-  <si>
-    <t>5,02%</t>
-  </si>
-  <si>
-    <t>1,7%</t>
-  </si>
-  <si>
-    <t>5,75%</t>
-  </si>
-  <si>
-    <t>1,26%</t>
-  </si>
-  <si>
-    <t>0,36%</t>
-  </si>
-  <si>
-    <t>98,34%</t>
-  </si>
-  <si>
-    <t>94,09%</t>
-  </si>
-  <si>
-    <t>98,3%</t>
-  </si>
-  <si>
-    <t>94,25%</t>
-  </si>
-  <si>
-    <t>98,32%</t>
-  </si>
-  <si>
-    <t>95,88%</t>
-  </si>
-  <si>
-    <t>99,58%</t>
-  </si>
-  <si>
-    <t>0,35%</t>
-  </si>
-  <si>
-    <t>1,78%</t>
-  </si>
-  <si>
-    <t>0,16%</t>
-  </si>
-  <si>
-    <t>0,98%</t>
-  </si>
-  <si>
-    <t>0,33%</t>
-  </si>
-  <si>
-    <t>3,07%</t>
-  </si>
-  <si>
-    <t>0,75%</t>
-  </si>
-  <si>
-    <t>2,28%</t>
-  </si>
-  <si>
-    <t>0,97%</t>
-  </si>
-  <si>
-    <t>98,84%</t>
-  </si>
-  <si>
-    <t>96,93%</t>
-  </si>
-  <si>
-    <t>99,67%</t>
-  </si>
-  <si>
-    <t>98,89%</t>
-  </si>
-  <si>
-    <t>99,65%</t>
-  </si>
-  <si>
-    <t>98,86%</t>
-  </si>
-  <si>
-    <t>97,51%</t>
-  </si>
-  <si>
-    <t>99,49%</t>
-  </si>
-  <si>
-    <t>1,01%</t>
-  </si>
-  <si>
-    <t>3,23%</t>
-  </si>
-  <si>
-    <t>0,47%</t>
-  </si>
-  <si>
-    <t>1,79%</t>
-  </si>
-  <si>
-    <t>1,11%</t>
-  </si>
-  <si>
-    <t>3,93%</t>
-  </si>
-  <si>
-    <t>3,45%</t>
-  </si>
-  <si>
-    <t>1,47%</t>
-  </si>
-  <si>
-    <t>6,67%</t>
-  </si>
-  <si>
-    <t>2,2%</t>
-  </si>
-  <si>
-    <t>1,05%</t>
-  </si>
-  <si>
-    <t>3,97%</t>
-  </si>
-  <si>
-    <t>96,07%</t>
-  </si>
-  <si>
-    <t>95,54%</t>
-  </si>
-  <si>
-    <t>91,98%</t>
-  </si>
-  <si>
-    <t>97,71%</t>
-  </si>
-  <si>
-    <t>97,32%</t>
-  </si>
-  <si>
-    <t>95,3%</t>
-  </si>
-  <si>
-    <t>0,44%</t>
-  </si>
-  <si>
-    <t>2,18%</t>
-  </si>
-  <si>
-    <t>0,22%</t>
-  </si>
-  <si>
-    <t>0,38%</t>
-  </si>
-  <si>
-    <t>3,28%</t>
-  </si>
-  <si>
-    <t>1,75%</t>
-  </si>
-  <si>
-    <t>0,49%</t>
-  </si>
-  <si>
-    <t>4,37%</t>
-  </si>
-  <si>
-    <t>1,52%</t>
-  </si>
-  <si>
-    <t>0,64%</t>
-  </si>
-  <si>
-    <t>2,89%</t>
-  </si>
-  <si>
-    <t>96,72%</t>
-  </si>
-  <si>
-    <t>99,62%</t>
-  </si>
-  <si>
-    <t>97,82%</t>
-  </si>
-  <si>
-    <t>95,15%</t>
-  </si>
-  <si>
-    <t>99,16%</t>
-  </si>
-  <si>
-    <t>98,26%</t>
-  </si>
-  <si>
-    <t>96,83%</t>
-  </si>
-  <si>
-    <t>1,14%</t>
-  </si>
-  <si>
-    <t>0,1%</t>
-  </si>
-  <si>
-    <t>0,62%</t>
-  </si>
-  <si>
-    <t>0,53%</t>
-  </si>
-  <si>
-    <t>2,1%</t>
-  </si>
-  <si>
-    <t>1,06%</t>
-  </si>
-  <si>
-    <t>1,43%</t>
-  </si>
-  <si>
-    <t>0,94%</t>
-  </si>
-  <si>
-    <t>98,78%</t>
-  </si>
-  <si>
-    <t>97,69%</t>
-  </si>
-  <si>
-    <t>99,36%</t>
-  </si>
-  <si>
-    <t>97,75%</t>
-  </si>
-  <si>
-    <t>98,55%</t>
-  </si>
-  <si>
-    <t>98,29%</t>
-  </si>
-  <si>
-    <t>97,54%</t>
-  </si>
-  <si>
-    <t>98,8%</t>
-  </si>
-  <si>
-    <t>Hogares según si tienen calidad medioambiental mala o muy mala en la zona de residencia en 2023 (Tasa respuesta: 100,0%)</t>
-  </si>
-  <si>
-    <t>6,57%</t>
-  </si>
-  <si>
-    <t>3,98%</t>
-  </si>
-  <si>
-    <t>93,43%</t>
-  </si>
-  <si>
-    <t>96,02%</t>
-  </si>
-  <si>
-    <t>1,25%</t>
-  </si>
-  <si>
-    <t>0,6%</t>
-  </si>
-  <si>
-    <t>2,12%</t>
-  </si>
-  <si>
-    <t>1,21%</t>
-  </si>
-  <si>
-    <t>99,57%</t>
-  </si>
-  <si>
-    <t>97,88%</t>
-  </si>
-  <si>
-    <t>99,78%</t>
-  </si>
-  <si>
-    <t>98,79%</t>
-  </si>
-  <si>
-    <t>0,68%</t>
-  </si>
-  <si>
-    <t>0,15%</t>
-  </si>
-  <si>
-    <t>0,2%</t>
-  </si>
-  <si>
-    <t>99,38%</t>
-  </si>
-  <si>
-    <t>97,89%</t>
-  </si>
-  <si>
-    <t>99,32%</t>
-  </si>
-  <si>
-    <t>98,83%</t>
-  </si>
-  <si>
-    <t>0,84%</t>
-  </si>
-  <si>
-    <t>5,88%</t>
-  </si>
-  <si>
-    <t>0,52%</t>
-  </si>
-  <si>
-    <t>22,08%</t>
-  </si>
-  <si>
-    <t>2,9%</t>
-  </si>
-  <si>
-    <t>0,13%</t>
-  </si>
-  <si>
-    <t>11,97%</t>
-  </si>
-  <si>
-    <t>99,15%</t>
-  </si>
-  <si>
-    <t>94,12%</t>
-  </si>
-  <si>
-    <t>77,92%</t>
-  </si>
-  <si>
-    <t>99,48%</t>
-  </si>
-  <si>
-    <t>88,03%</t>
-  </si>
-  <si>
-    <t>99,87%</t>
-  </si>
-  <si>
-    <t>2,88%</t>
-  </si>
-  <si>
-    <t>2,45%</t>
-  </si>
-  <si>
-    <t>1,73%</t>
-  </si>
-  <si>
-    <t>2,49%</t>
-  </si>
-  <si>
-    <t>8,59%</t>
-  </si>
-  <si>
-    <t>3,96%</t>
-  </si>
-  <si>
-    <t>5,43%</t>
-  </si>
-  <si>
-    <t>90,7%</t>
-  </si>
-  <si>
-    <t>95,42%</t>
-  </si>
-  <si>
-    <t>99,25%</t>
-  </si>
-  <si>
-    <t>94,04%</t>
-  </si>
-  <si>
-    <t>97,6%</t>
-  </si>
-  <si>
-    <t>0,21%</t>
-  </si>
-  <si>
-    <t>0,67%</t>
-  </si>
-  <si>
-    <t>0,17%</t>
-  </si>
-  <si>
-    <t>0,05%</t>
-  </si>
-  <si>
-    <t>1,31%</t>
-  </si>
-  <si>
-    <t>7,21%</t>
-  </si>
-  <si>
-    <t>1,63%</t>
-  </si>
-  <si>
-    <t>4,58%</t>
-  </si>
-  <si>
-    <t>98,47%</t>
-  </si>
-  <si>
-    <t>97,52%</t>
-  </si>
-  <si>
-    <t>92,58%</t>
-  </si>
-  <si>
-    <t>98,19%</t>
-  </si>
-  <si>
-    <t>98,99%</t>
+    <t>96,96%</t>
+  </si>
+  <si>
+    <t>90,3%</t>
+  </si>
+  <si>
+    <t>98,97%</t>
   </si>
 </sst>
 </file>
@@ -1557,8 +1473,8 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7235DA05-23DB-4433-979B-28D731A2E696}">
-  <dimension ref="A1:Q28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F1DA371E-5FE4-4AAB-9E06-119B5FC66C14}">
+  <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -1726,100 +1642,100 @@
         <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="D5" s="7">
-        <v>0</v>
+        <v>2106</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>11</v>
+        <v>17</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>12</v>
+        <v>18</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>13</v>
+        <v>19</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="I5" s="7">
-        <v>0</v>
+        <v>2499</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>11</v>
+        <v>20</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>14</v>
+        <v>22</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="N5" s="7">
-        <v>0</v>
+        <v>4605</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>11</v>
+        <v>23</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>12</v>
+        <v>24</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>15</v>
+        <v>25</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="C6" s="7">
+        <v>149</v>
+      </c>
+      <c r="D6" s="7">
+        <v>103103</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>28</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>29</v>
+      </c>
+      <c r="H6" s="7">
+        <v>168</v>
+      </c>
+      <c r="I6" s="7">
+        <v>115790</v>
+      </c>
+      <c r="J6" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="D6" s="7">
-        <v>23708</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>19</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="H6" s="7">
-        <v>25</v>
-      </c>
-      <c r="I6" s="7">
-        <v>19009</v>
-      </c>
-      <c r="J6" s="7" t="s">
-        <v>18</v>
-      </c>
       <c r="K6" s="7" t="s">
-        <v>21</v>
+        <v>31</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>20</v>
+        <v>32</v>
       </c>
       <c r="M6" s="7">
-        <v>55</v>
+        <v>317</v>
       </c>
       <c r="N6" s="7">
-        <v>42717</v>
+        <v>218894</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>18</v>
+        <v>33</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>22</v>
+        <v>34</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>20</v>
+        <v>35</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -1828,54 +1744,54 @@
         <v>3</v>
       </c>
       <c r="C7" s="7">
-        <v>30</v>
+        <v>152</v>
       </c>
       <c r="D7" s="7">
-        <v>23708</v>
+        <v>105209</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="H7" s="7">
-        <v>25</v>
+        <v>172</v>
       </c>
       <c r="I7" s="7">
-        <v>19009</v>
+        <v>118289</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="M7" s="7">
-        <v>55</v>
+        <v>324</v>
       </c>
       <c r="N7" s="7">
-        <v>42717</v>
+        <v>223499</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>10</v>
@@ -1893,7 +1809,7 @@
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>24</v>
+        <v>38</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -1908,7 +1824,7 @@
         <v>12</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>25</v>
+        <v>39</v>
       </c>
       <c r="M8" s="7">
         <v>0</v>
@@ -1923,7 +1839,7 @@
         <v>12</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>26</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1932,100 +1848,100 @@
         <v>16</v>
       </c>
       <c r="C9" s="7">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D9" s="7">
-        <v>2499</v>
+        <v>5805</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>27</v>
+        <v>41</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>28</v>
+        <v>42</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>29</v>
+        <v>43</v>
       </c>
       <c r="H9" s="7">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="I9" s="7">
-        <v>2106</v>
+        <v>6490</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>30</v>
+        <v>44</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>31</v>
+        <v>45</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="M9" s="7">
-        <v>7</v>
+        <v>19</v>
       </c>
       <c r="N9" s="7">
-        <v>4605</v>
+        <v>12295</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>33</v>
+        <v>47</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>34</v>
+        <v>48</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="C10" s="7">
-        <v>138</v>
+        <v>192</v>
       </c>
       <c r="D10" s="7">
-        <v>92082</v>
+        <v>119160</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>37</v>
+        <v>51</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>38</v>
+        <v>52</v>
       </c>
       <c r="H10" s="7">
-        <v>124</v>
+        <v>206</v>
       </c>
       <c r="I10" s="7">
-        <v>84095</v>
+        <v>134252</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>39</v>
+        <v>53</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>40</v>
+        <v>54</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="M10" s="7">
-        <v>262</v>
+        <v>398</v>
       </c>
       <c r="N10" s="7">
-        <v>176177</v>
+        <v>253412</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>42</v>
+        <v>56</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>43</v>
+        <v>57</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>44</v>
+        <v>58</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -2034,54 +1950,54 @@
         <v>3</v>
       </c>
       <c r="C11" s="7">
-        <v>142</v>
+        <v>201</v>
       </c>
       <c r="D11" s="7">
-        <v>94581</v>
+        <v>124965</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="H11" s="7">
-        <v>127</v>
+        <v>216</v>
       </c>
       <c r="I11" s="7">
-        <v>86201</v>
+        <v>140742</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="M11" s="7">
-        <v>269</v>
+        <v>417</v>
       </c>
       <c r="N11" s="7">
-        <v>180782</v>
+        <v>265707</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -2099,7 +2015,7 @@
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>46</v>
+        <v>60</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -2114,7 +2030,7 @@
         <v>12</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>47</v>
+        <v>61</v>
       </c>
       <c r="M12" s="7">
         <v>0</v>
@@ -2129,7 +2045,7 @@
         <v>12</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>48</v>
+        <v>62</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -2138,100 +2054,100 @@
         <v>16</v>
       </c>
       <c r="C13" s="7">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="D13" s="7">
-        <v>6490</v>
+        <v>2208</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>49</v>
+        <v>63</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>50</v>
+        <v>64</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>51</v>
+        <v>65</v>
       </c>
       <c r="H13" s="7">
-        <v>9</v>
+        <v>2</v>
       </c>
       <c r="I13" s="7">
-        <v>5805</v>
+        <v>1207</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>52</v>
+        <v>66</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>53</v>
+        <v>11</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>54</v>
+        <v>67</v>
       </c>
       <c r="M13" s="7">
-        <v>19</v>
+        <v>6</v>
       </c>
       <c r="N13" s="7">
-        <v>12295</v>
+        <v>3415</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>55</v>
+        <v>68</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>56</v>
+        <v>69</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>57</v>
+        <v>70</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="C14" s="7">
-        <v>206</v>
+        <v>173</v>
       </c>
       <c r="D14" s="7">
-        <v>134252</v>
+        <v>105640</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>58</v>
+        <v>71</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>59</v>
+        <v>72</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>60</v>
+        <v>73</v>
       </c>
       <c r="H14" s="7">
-        <v>192</v>
+        <v>171</v>
       </c>
       <c r="I14" s="7">
-        <v>119160</v>
+        <v>111366</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>61</v>
+        <v>74</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>62</v>
+        <v>75</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>63</v>
+        <v>76</v>
       </c>
       <c r="M14" s="7">
-        <v>398</v>
+        <v>344</v>
       </c>
       <c r="N14" s="7">
-        <v>253412</v>
+        <v>217005</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>64</v>
+        <v>77</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>65</v>
+        <v>78</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>66</v>
+        <v>79</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -2240,54 +2156,54 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>216</v>
+        <v>177</v>
       </c>
       <c r="D15" s="7">
-        <v>140742</v>
+        <v>107848</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="H15" s="7">
-        <v>201</v>
+        <v>173</v>
       </c>
       <c r="I15" s="7">
-        <v>124965</v>
+        <v>112573</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="M15" s="7">
-        <v>417</v>
+        <v>350</v>
       </c>
       <c r="N15" s="7">
-        <v>265707</v>
+        <v>220420</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
@@ -2305,7 +2221,7 @@
         <v>12</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>68</v>
+        <v>39</v>
       </c>
       <c r="H16" s="7">
         <v>0</v>
@@ -2320,7 +2236,7 @@
         <v>12</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>69</v>
+        <v>81</v>
       </c>
       <c r="M16" s="7">
         <v>0</v>
@@ -2335,7 +2251,7 @@
         <v>12</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>70</v>
+        <v>82</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -2344,100 +2260,100 @@
         <v>16</v>
       </c>
       <c r="C17" s="7">
-        <v>2</v>
+        <v>12</v>
       </c>
       <c r="D17" s="7">
-        <v>1207</v>
+        <v>9157</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>34</v>
+        <v>83</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>11</v>
+        <v>70</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>71</v>
+        <v>84</v>
       </c>
       <c r="H17" s="7">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="I17" s="7">
-        <v>2208</v>
+        <v>5723</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>72</v>
+        <v>85</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>73</v>
+        <v>86</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>74</v>
+        <v>87</v>
       </c>
       <c r="M17" s="7">
-        <v>6</v>
+        <v>21</v>
       </c>
       <c r="N17" s="7">
-        <v>3415</v>
+        <v>14880</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>75</v>
+        <v>88</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>70</v>
+        <v>89</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>76</v>
+        <v>90</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="C18" s="7">
-        <v>171</v>
+        <v>204</v>
       </c>
       <c r="D18" s="7">
-        <v>111366</v>
+        <v>156179</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>44</v>
+        <v>91</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>77</v>
+        <v>92</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>18</v>
+        <v>78</v>
       </c>
       <c r="H18" s="7">
-        <v>173</v>
+        <v>222</v>
       </c>
       <c r="I18" s="7">
-        <v>105640</v>
+        <v>151223</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>78</v>
+        <v>93</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>79</v>
+        <v>94</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>80</v>
+        <v>95</v>
       </c>
       <c r="M18" s="7">
-        <v>344</v>
+        <v>426</v>
       </c>
       <c r="N18" s="7">
-        <v>217005</v>
+        <v>307402</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>81</v>
+        <v>96</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>82</v>
+        <v>97</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>83</v>
+        <v>98</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -2446,54 +2362,54 @@
         <v>3</v>
       </c>
       <c r="C19" s="7">
-        <v>173</v>
+        <v>216</v>
       </c>
       <c r="D19" s="7">
-        <v>112573</v>
+        <v>165336</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="H19" s="7">
-        <v>177</v>
+        <v>231</v>
       </c>
       <c r="I19" s="7">
-        <v>107848</v>
+        <v>156946</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="M19" s="7">
-        <v>350</v>
+        <v>447</v>
       </c>
       <c r="N19" s="7">
-        <v>220420</v>
+        <v>322282</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>84</v>
+        <v>3</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -2511,7 +2427,7 @@
         <v>12</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>85</v>
+        <v>99</v>
       </c>
       <c r="H20" s="7">
         <v>0</v>
@@ -2526,7 +2442,7 @@
         <v>12</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>46</v>
+        <v>100</v>
       </c>
       <c r="M20" s="7">
         <v>0</v>
@@ -2541,7 +2457,7 @@
         <v>12</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>86</v>
+        <v>101</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -2550,100 +2466,100 @@
         <v>16</v>
       </c>
       <c r="C21" s="7">
-        <v>9</v>
+        <v>28</v>
       </c>
       <c r="D21" s="7">
-        <v>5723</v>
+        <v>19275</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>87</v>
+        <v>102</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>88</v>
+        <v>103</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>89</v>
+        <v>104</v>
       </c>
       <c r="H21" s="7">
-        <v>12</v>
+        <v>25</v>
       </c>
       <c r="I21" s="7">
-        <v>9157</v>
+        <v>15919</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>90</v>
+        <v>105</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>91</v>
+        <v>106</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>92</v>
+        <v>107</v>
       </c>
       <c r="M21" s="7">
-        <v>21</v>
+        <v>53</v>
       </c>
       <c r="N21" s="7">
-        <v>14880</v>
+        <v>35195</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>93</v>
+        <v>108</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>94</v>
+        <v>109</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>95</v>
+        <v>110</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="C22" s="7">
-        <v>222</v>
+        <v>718</v>
       </c>
       <c r="D22" s="7">
-        <v>151223</v>
+        <v>484084</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>96</v>
+        <v>111</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>97</v>
+        <v>112</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>98</v>
+        <v>113</v>
       </c>
       <c r="H22" s="7">
-        <v>204</v>
+        <v>767</v>
       </c>
       <c r="I22" s="7">
-        <v>156179</v>
+        <v>512630</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>99</v>
+        <v>114</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>100</v>
+        <v>115</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>101</v>
+        <v>116</v>
       </c>
       <c r="M22" s="7">
-        <v>426</v>
+        <v>1485</v>
       </c>
       <c r="N22" s="7">
-        <v>307402</v>
+        <v>996713</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>102</v>
+        <v>117</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>103</v>
+        <v>118</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>104</v>
+        <v>119</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -2652,268 +2568,61 @@
         <v>3</v>
       </c>
       <c r="C23" s="7">
-        <v>231</v>
+        <v>746</v>
       </c>
       <c r="D23" s="7">
-        <v>156946</v>
+        <v>503359</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="H23" s="7">
-        <v>216</v>
+        <v>792</v>
       </c>
       <c r="I23" s="7">
-        <v>165336</v>
+        <v>528549</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="M23" s="7">
-        <v>447</v>
+        <v>1538</v>
       </c>
       <c r="N23" s="7">
-        <v>322282</v>
+        <v>1031908</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C24" s="7">
-        <v>0</v>
-      </c>
-      <c r="D24" s="7">
-        <v>0</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="H24" s="7">
-        <v>0</v>
-      </c>
-      <c r="I24" s="7">
-        <v>0</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="M24" s="7">
-        <v>0</v>
-      </c>
-      <c r="N24" s="7">
-        <v>0</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>12</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" s="1"/>
-      <c r="B25" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C25" s="7">
-        <v>25</v>
-      </c>
-      <c r="D25" s="7">
-        <v>15919</v>
-      </c>
-      <c r="E25" s="7" t="s">
-        <v>108</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>110</v>
-      </c>
-      <c r="H25" s="7">
-        <v>28</v>
-      </c>
-      <c r="I25" s="7">
-        <v>19275</v>
-      </c>
-      <c r="J25" s="7" t="s">
-        <v>111</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>112</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>113</v>
-      </c>
-      <c r="M25" s="7">
-        <v>53</v>
-      </c>
-      <c r="N25" s="7">
-        <v>35195</v>
-      </c>
-      <c r="O25" s="7" t="s">
-        <v>114</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>115</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A26" s="1"/>
-      <c r="B26" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C26" s="7">
-        <v>767</v>
-      </c>
-      <c r="D26" s="7">
-        <v>512631</v>
-      </c>
-      <c r="E26" s="7" t="s">
-        <v>117</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>118</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>119</v>
-      </c>
-      <c r="H26" s="7">
-        <v>718</v>
-      </c>
-      <c r="I26" s="7">
-        <v>484084</v>
-      </c>
-      <c r="J26" s="7" t="s">
+      <c r="A24" t="s">
         <v>120</v>
       </c>
-      <c r="K26" s="7" t="s">
-        <v>121</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>122</v>
-      </c>
-      <c r="M26" s="7">
-        <v>1485</v>
-      </c>
-      <c r="N26" s="7">
-        <v>996713</v>
-      </c>
-      <c r="O26" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>124</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A27" s="1"/>
-      <c r="B27" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C27" s="7">
-        <v>792</v>
-      </c>
-      <c r="D27" s="7">
-        <v>528550</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="H27" s="7">
-        <v>746</v>
-      </c>
-      <c r="I27" s="7">
-        <v>503359</v>
-      </c>
-      <c r="J27" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="M27" s="7">
-        <v>1538</v>
-      </c>
-      <c r="N27" s="7">
-        <v>1031908</v>
-      </c>
-      <c r="O27" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="P27" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>126</v>
-      </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A16:A19"/>
     <mergeCell ref="A20:A23"/>
-    <mergeCell ref="A24:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -2926,8 +2635,8 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA4A02C8-2E15-4AA8-83B3-0EE4C3866FA8}">
-  <dimension ref="A1:Q28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68E8D857-DDB7-40B7-8B18-33804F308DCE}">
+  <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -2943,7 +2652,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>127</v>
+        <v>121</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -3056,7 +2765,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -3071,7 +2780,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -3086,7 +2795,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -3107,7 +2816,7 @@
         <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>128</v>
+        <v>122</v>
       </c>
       <c r="H5" s="7">
         <v>0</v>
@@ -3122,7 +2831,7 @@
         <v>12</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>129</v>
+        <v>123</v>
       </c>
       <c r="M5" s="7">
         <v>0</v>
@@ -3137,58 +2846,58 @@
         <v>12</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>130</v>
+        <v>124</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="C6" s="7">
-        <v>18</v>
+        <v>133</v>
       </c>
       <c r="D6" s="7">
-        <v>16093</v>
+        <v>97129</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>18</v>
+        <v>76</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>131</v>
+        <v>125</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="H6" s="7">
-        <v>19</v>
+        <v>156</v>
       </c>
       <c r="I6" s="7">
-        <v>16033</v>
+        <v>112501</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>18</v>
+        <v>76</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>132</v>
+        <v>126</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="M6" s="7">
-        <v>37</v>
+        <v>289</v>
       </c>
       <c r="N6" s="7">
-        <v>32126</v>
+        <v>209629</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>18</v>
+        <v>76</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>133</v>
+        <v>127</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -3197,72 +2906,72 @@
         <v>3</v>
       </c>
       <c r="C7" s="7">
-        <v>18</v>
+        <v>133</v>
       </c>
       <c r="D7" s="7">
-        <v>16093</v>
+        <v>97129</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="H7" s="7">
-        <v>19</v>
+        <v>156</v>
       </c>
       <c r="I7" s="7">
-        <v>16033</v>
+        <v>112501</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="M7" s="7">
-        <v>37</v>
+        <v>289</v>
       </c>
       <c r="N7" s="7">
-        <v>32126</v>
+        <v>209629</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C8" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D8" s="7">
-        <v>0</v>
+        <v>502</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>11</v>
+        <v>128</v>
       </c>
       <c r="F8" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -3277,22 +2986,22 @@
         <v>12</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="M8" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N8" s="7">
-        <v>0</v>
+        <v>502</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>11</v>
+        <v>131</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -3301,100 +3010,100 @@
         <v>16</v>
       </c>
       <c r="C9" s="7">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="D9" s="7">
-        <v>0</v>
+        <v>4094</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>11</v>
+        <v>133</v>
       </c>
       <c r="F9" s="7" t="s">
-        <v>12</v>
+        <v>61</v>
       </c>
       <c r="G9" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="H9" s="7">
+        <v>7</v>
+      </c>
+      <c r="I9" s="7">
+        <v>4867</v>
+      </c>
+      <c r="J9" s="7" t="s">
         <v>134</v>
       </c>
-      <c r="H9" s="7">
-        <v>0</v>
-      </c>
-      <c r="I9" s="7">
-        <v>0</v>
-      </c>
-      <c r="J9" s="7" t="s">
-        <v>11</v>
-      </c>
       <c r="K9" s="7" t="s">
-        <v>12</v>
+        <v>135</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
       <c r="M9" s="7">
-        <v>0</v>
+        <v>13</v>
       </c>
       <c r="N9" s="7">
-        <v>0</v>
+        <v>8961</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>11</v>
+        <v>137</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>12</v>
+        <v>138</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>136</v>
+        <v>139</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="C10" s="7">
-        <v>138</v>
+        <v>192</v>
       </c>
       <c r="D10" s="7">
-        <v>96407</v>
+        <v>124386</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>18</v>
+        <v>140</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>137</v>
+        <v>141</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>20</v>
+        <v>142</v>
       </c>
       <c r="H10" s="7">
-        <v>114</v>
+        <v>216</v>
       </c>
       <c r="I10" s="7">
-        <v>81096</v>
+        <v>149689</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>18</v>
+        <v>143</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>138</v>
+        <v>144</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>20</v>
+        <v>145</v>
       </c>
       <c r="M10" s="7">
-        <v>252</v>
+        <v>408</v>
       </c>
       <c r="N10" s="7">
-        <v>177503</v>
+        <v>274076</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>18</v>
+        <v>146</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>139</v>
+        <v>31</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>20</v>
+        <v>116</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -3403,54 +3112,54 @@
         <v>3</v>
       </c>
       <c r="C11" s="7">
-        <v>138</v>
+        <v>199</v>
       </c>
       <c r="D11" s="7">
-        <v>96407</v>
+        <v>128983</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="H11" s="7">
-        <v>114</v>
+        <v>223</v>
       </c>
       <c r="I11" s="7">
-        <v>81096</v>
+        <v>154556</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="M11" s="7">
-        <v>252</v>
+        <v>422</v>
       </c>
       <c r="N11" s="7">
-        <v>177503</v>
+        <v>283539</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
@@ -3468,37 +3177,37 @@
         <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>140</v>
+        <v>147</v>
       </c>
       <c r="H12" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I12" s="7">
-        <v>502</v>
+        <v>0</v>
       </c>
       <c r="J12" s="7" t="s">
-        <v>141</v>
+        <v>11</v>
       </c>
       <c r="K12" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>142</v>
+        <v>66</v>
       </c>
       <c r="M12" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N12" s="7">
-        <v>502</v>
+        <v>0</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>143</v>
+        <v>11</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>144</v>
+        <v>64</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -3507,40 +3216,40 @@
         <v>16</v>
       </c>
       <c r="C13" s="7">
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D13" s="7">
-        <v>4867</v>
+        <v>997</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>145</v>
+        <v>38</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>146</v>
+        <v>11</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>147</v>
+        <v>148</v>
       </c>
       <c r="H13" s="7">
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="I13" s="7">
-        <v>4094</v>
+        <v>1494</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>149</v>
+        <v>11</v>
       </c>
       <c r="L13" s="7" t="s">
         <v>150</v>
       </c>
       <c r="M13" s="7">
-        <v>13</v>
+        <v>4</v>
       </c>
       <c r="N13" s="7">
-        <v>8961</v>
+        <v>2491</v>
       </c>
       <c r="O13" s="7" t="s">
         <v>151</v>
@@ -3555,13 +3264,13 @@
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="C14" s="7">
-        <v>216</v>
+        <v>162</v>
       </c>
       <c r="D14" s="7">
-        <v>149689</v>
+        <v>103854</v>
       </c>
       <c r="E14" s="7" t="s">
         <v>154</v>
@@ -3570,37 +3279,37 @@
         <v>155</v>
       </c>
       <c r="G14" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="H14" s="7">
+        <v>176</v>
+      </c>
+      <c r="I14" s="7">
+        <v>115290</v>
+      </c>
+      <c r="J14" s="7" t="s">
         <v>156</v>
       </c>
-      <c r="H14" s="7">
-        <v>192</v>
-      </c>
-      <c r="I14" s="7">
-        <v>124386</v>
-      </c>
-      <c r="J14" s="7" t="s">
+      <c r="K14" s="7" t="s">
         <v>157</v>
       </c>
-      <c r="K14" s="7" t="s">
+      <c r="L14" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="M14" s="7">
+        <v>338</v>
+      </c>
+      <c r="N14" s="7">
+        <v>219143</v>
+      </c>
+      <c r="O14" s="7" t="s">
         <v>158</v>
       </c>
-      <c r="L14" s="7" t="s">
+      <c r="P14" s="7" t="s">
         <v>159</v>
       </c>
-      <c r="M14" s="7">
-        <v>408</v>
-      </c>
-      <c r="N14" s="7">
-        <v>274076</v>
-      </c>
-      <c r="O14" s="7" t="s">
+      <c r="Q14" s="7" t="s">
         <v>160</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>161</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>162</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -3609,102 +3318,102 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>223</v>
+        <v>164</v>
       </c>
       <c r="D15" s="7">
-        <v>154556</v>
+        <v>104851</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="H15" s="7">
-        <v>199</v>
+        <v>178</v>
       </c>
       <c r="I15" s="7">
-        <v>128983</v>
+        <v>116784</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="M15" s="7">
-        <v>422</v>
+        <v>342</v>
       </c>
       <c r="N15" s="7">
-        <v>283539</v>
+        <v>221634</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D16" s="7">
-        <v>0</v>
+        <v>734</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>11</v>
+        <v>161</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>34</v>
+        <v>162</v>
       </c>
       <c r="H16" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I16" s="7">
-        <v>0</v>
+        <v>1469</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>11</v>
+        <v>38</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L16" s="7" t="s">
         <v>163</v>
       </c>
       <c r="M16" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N16" s="7">
-        <v>0</v>
+        <v>2203</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>11</v>
+        <v>164</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>12</v>
+        <v>100</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -3713,100 +3422,100 @@
         <v>16</v>
       </c>
       <c r="C17" s="7">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="D17" s="7">
-        <v>1494</v>
+        <v>4545</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>11</v>
+        <v>167</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="H17" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I17" s="7">
-        <v>997</v>
+        <v>1988</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>47</v>
+        <v>149</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>11</v>
+        <v>169</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>167</v>
+        <v>170</v>
       </c>
       <c r="M17" s="7">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="N17" s="7">
-        <v>2491</v>
+        <v>6533</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>168</v>
+        <v>171</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>169</v>
+        <v>172</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="C18" s="7">
+        <v>184</v>
+      </c>
+      <c r="D18" s="7">
+        <v>140723</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>174</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>175</v>
+      </c>
+      <c r="G18" s="7" t="s">
         <v>176</v>
       </c>
-      <c r="D18" s="7">
-        <v>115290</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>171</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>172</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>18</v>
-      </c>
       <c r="H18" s="7">
-        <v>162</v>
+        <v>207</v>
       </c>
       <c r="I18" s="7">
-        <v>103854</v>
+        <v>151484</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>173</v>
+        <v>177</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>174</v>
+        <v>178</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>18</v>
+        <v>179</v>
       </c>
       <c r="M18" s="7">
-        <v>338</v>
+        <v>391</v>
       </c>
       <c r="N18" s="7">
-        <v>219143</v>
+        <v>292207</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>175</v>
+        <v>180</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>176</v>
+        <v>181</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>177</v>
+        <v>182</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -3815,54 +3524,54 @@
         <v>3</v>
       </c>
       <c r="C19" s="7">
-        <v>178</v>
+        <v>191</v>
       </c>
       <c r="D19" s="7">
-        <v>116784</v>
+        <v>146002</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="H19" s="7">
-        <v>164</v>
+        <v>212</v>
       </c>
       <c r="I19" s="7">
-        <v>104851</v>
+        <v>154941</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="M19" s="7">
-        <v>342</v>
+        <v>403</v>
       </c>
       <c r="N19" s="7">
-        <v>221634</v>
+        <v>300943</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>84</v>
+        <v>3</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -3871,46 +3580,46 @@
         <v>2</v>
       </c>
       <c r="D20" s="7">
+        <v>1236</v>
+      </c>
+      <c r="E20" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="F20" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G20" s="7" t="s">
+        <v>183</v>
+      </c>
+      <c r="H20" s="7">
+        <v>2</v>
+      </c>
+      <c r="I20" s="7">
         <v>1469</v>
       </c>
-      <c r="E20" s="7" t="s">
-        <v>47</v>
-      </c>
-      <c r="F20" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G20" s="7" t="s">
-        <v>178</v>
-      </c>
-      <c r="H20" s="7">
-        <v>1</v>
-      </c>
-      <c r="I20" s="7">
-        <v>734</v>
-      </c>
       <c r="J20" s="7" t="s">
-        <v>179</v>
+        <v>184</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>180</v>
+        <v>185</v>
       </c>
       <c r="M20" s="7">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="N20" s="7">
-        <v>2203</v>
+        <v>2705</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>181</v>
+        <v>184</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>105</v>
+        <v>186</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>182</v>
+        <v>187</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -3919,91 +3628,91 @@
         <v>16</v>
       </c>
       <c r="C21" s="7">
-        <v>3</v>
+        <v>14</v>
       </c>
       <c r="D21" s="7">
-        <v>1988</v>
+        <v>9636</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>165</v>
+        <v>188</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>183</v>
+        <v>61</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>184</v>
+        <v>189</v>
       </c>
       <c r="H21" s="7">
-        <v>6</v>
+        <v>12</v>
       </c>
       <c r="I21" s="7">
-        <v>4545</v>
+        <v>8349</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>185</v>
+        <v>68</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>186</v>
+        <v>81</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>187</v>
+        <v>103</v>
       </c>
       <c r="M21" s="7">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="N21" s="7">
-        <v>6533</v>
+        <v>17986</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>189</v>
+        <v>151</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="C22" s="7">
-        <v>207</v>
+        <v>671</v>
       </c>
       <c r="D22" s="7">
-        <v>151484</v>
+        <v>466093</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="H22" s="7">
-        <v>184</v>
+        <v>755</v>
       </c>
       <c r="I22" s="7">
-        <v>140723</v>
+        <v>528963</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>195</v>
+        <v>114</v>
       </c>
       <c r="L22" s="7" t="s">
         <v>196</v>
       </c>
       <c r="M22" s="7">
-        <v>391</v>
+        <v>1426</v>
       </c>
       <c r="N22" s="7">
-        <v>292207</v>
+        <v>995055</v>
       </c>
       <c r="O22" s="7" t="s">
         <v>197</v>
@@ -4021,268 +3730,61 @@
         <v>3</v>
       </c>
       <c r="C23" s="7">
-        <v>212</v>
+        <v>687</v>
       </c>
       <c r="D23" s="7">
-        <v>154941</v>
+        <v>476965</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="H23" s="7">
-        <v>191</v>
+        <v>769</v>
       </c>
       <c r="I23" s="7">
-        <v>146002</v>
+        <v>538781</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="M23" s="7">
-        <v>403</v>
+        <v>1456</v>
       </c>
       <c r="N23" s="7">
-        <v>300943</v>
+        <v>1015746</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C24" s="7">
-        <v>2</v>
-      </c>
-      <c r="D24" s="7">
-        <v>1469</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="H24" s="7">
-        <v>2</v>
-      </c>
-      <c r="I24" s="7">
-        <v>1236</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>106</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>201</v>
-      </c>
-      <c r="M24" s="7">
-        <v>4</v>
-      </c>
-      <c r="N24" s="7">
-        <v>2705</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>200</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>202</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>203</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" s="1"/>
-      <c r="B25" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C25" s="7">
-        <v>12</v>
-      </c>
-      <c r="D25" s="7">
-        <v>8349</v>
-      </c>
-      <c r="E25" s="7" t="s">
-        <v>75</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>204</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>205</v>
-      </c>
-      <c r="H25" s="7">
-        <v>14</v>
-      </c>
-      <c r="I25" s="7">
-        <v>9636</v>
-      </c>
-      <c r="J25" s="7" t="s">
-        <v>206</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>149</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>207</v>
-      </c>
-      <c r="M25" s="7">
-        <v>26</v>
-      </c>
-      <c r="N25" s="7">
-        <v>17986</v>
-      </c>
-      <c r="O25" s="7" t="s">
-        <v>208</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>209</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A26" s="1"/>
-      <c r="B26" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C26" s="7">
-        <v>755</v>
-      </c>
-      <c r="D26" s="7">
-        <v>528963</v>
-      </c>
-      <c r="E26" s="7" t="s">
-        <v>210</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>211</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>212</v>
-      </c>
-      <c r="H26" s="7">
-        <v>671</v>
-      </c>
-      <c r="I26" s="7">
-        <v>466093</v>
-      </c>
-      <c r="J26" s="7" t="s">
-        <v>213</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>214</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>215</v>
-      </c>
-      <c r="M26" s="7">
-        <v>1426</v>
-      </c>
-      <c r="N26" s="7">
-        <v>995055</v>
-      </c>
-      <c r="O26" s="7" t="s">
-        <v>216</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>197</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>217</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A27" s="1"/>
-      <c r="B27" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C27" s="7">
-        <v>769</v>
-      </c>
-      <c r="D27" s="7">
-        <v>538781</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="H27" s="7">
-        <v>687</v>
-      </c>
-      <c r="I27" s="7">
-        <v>476965</v>
-      </c>
-      <c r="J27" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="M27" s="7">
-        <v>1456</v>
-      </c>
-      <c r="N27" s="7">
-        <v>1015746</v>
-      </c>
-      <c r="O27" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="P27" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>126</v>
+      <c r="A24" t="s">
+        <v>120</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A16:A19"/>
     <mergeCell ref="A20:A23"/>
-    <mergeCell ref="A24:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -4295,8 +3797,8 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AAE743B-4633-46F2-8F08-A539A8227210}">
-  <dimension ref="A1:Q28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36E7C739-1AAA-49F4-93D7-7DAE527EFFC9}">
+  <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -4312,7 +3814,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>218</v>
+        <v>200</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -4425,37 +3927,37 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>219</v>
+        <v>167</v>
       </c>
       <c r="H4" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I4" s="7">
-        <v>0</v>
+        <v>678</v>
       </c>
       <c r="J4" s="7" t="s">
-        <v>11</v>
+        <v>18</v>
       </c>
       <c r="K4" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>220</v>
+        <v>201</v>
       </c>
       <c r="M4" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N4" s="7">
-        <v>0</v>
+        <v>678</v>
       </c>
       <c r="O4" s="7" t="s">
-        <v>11</v>
+        <v>202</v>
       </c>
       <c r="P4" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>221</v>
+        <v>203</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -4464,100 +3966,100 @@
         <v>16</v>
       </c>
       <c r="C5" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D5" s="7">
-        <v>0</v>
+        <v>1276</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>11</v>
+        <v>204</v>
       </c>
       <c r="F5" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>219</v>
+        <v>205</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5" s="7">
-        <v>0</v>
+        <v>764</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>11</v>
+        <v>164</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>220</v>
+        <v>206</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="N5" s="7">
-        <v>0</v>
+        <v>2040</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>11</v>
+        <v>207</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>12</v>
+        <v>208</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>221</v>
+        <v>89</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="C6" s="7">
-        <v>21</v>
+        <v>124</v>
       </c>
       <c r="D6" s="7">
-        <v>17678</v>
+        <v>88809</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>18</v>
+        <v>209</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>222</v>
+        <v>210</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>20</v>
+        <v>76</v>
       </c>
       <c r="H6" s="7">
-        <v>15</v>
+        <v>137</v>
       </c>
       <c r="I6" s="7">
-        <v>14930</v>
+        <v>103232</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>18</v>
+        <v>211</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>223</v>
+        <v>212</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>20</v>
+        <v>76</v>
       </c>
       <c r="M6" s="7">
-        <v>36</v>
+        <v>261</v>
       </c>
       <c r="N6" s="7">
-        <v>32608</v>
+        <v>192041</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>18</v>
+        <v>213</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>224</v>
+        <v>214</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>20</v>
+        <v>215</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -4566,54 +4068,54 @@
         <v>3</v>
       </c>
       <c r="C7" s="7">
-        <v>21</v>
+        <v>126</v>
       </c>
       <c r="D7" s="7">
-        <v>17678</v>
+        <v>90085</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="H7" s="7">
-        <v>15</v>
+        <v>139</v>
       </c>
       <c r="I7" s="7">
-        <v>14930</v>
+        <v>104674</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="M7" s="7">
-        <v>36</v>
+        <v>265</v>
       </c>
       <c r="N7" s="7">
-        <v>32608</v>
+        <v>194759</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>10</v>
@@ -4622,16 +4124,16 @@
         <v>1</v>
       </c>
       <c r="D8" s="7">
-        <v>678</v>
+        <v>536</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>225</v>
+        <v>202</v>
       </c>
       <c r="F8" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>226</v>
+        <v>190</v>
       </c>
       <c r="H8" s="7">
         <v>0</v>
@@ -4646,22 +4148,22 @@
         <v>12</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>227</v>
+        <v>164</v>
       </c>
       <c r="M8" s="7">
         <v>1</v>
       </c>
       <c r="N8" s="7">
-        <v>678</v>
+        <v>536</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>228</v>
+        <v>216</v>
       </c>
       <c r="P8" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>229</v>
+        <v>185</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -4670,100 +4172,100 @@
         <v>16</v>
       </c>
       <c r="C9" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="D9" s="7">
-        <v>764</v>
+        <v>1145</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>46</v>
+        <v>217</v>
       </c>
       <c r="F9" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G9" s="7" t="s">
-        <v>230</v>
+        <v>218</v>
       </c>
       <c r="H9" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="I9" s="7">
-        <v>1276</v>
+        <v>2040</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>231</v>
+        <v>147</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>11</v>
+        <v>219</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>232</v>
+        <v>134</v>
       </c>
       <c r="M9" s="7">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="N9" s="7">
-        <v>2040</v>
+        <v>3185</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>233</v>
+        <v>220</v>
       </c>
       <c r="P9" s="7" t="s">
-        <v>234</v>
+        <v>221</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>207</v>
+        <v>222</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="C10" s="7">
-        <v>116</v>
+        <v>242</v>
       </c>
       <c r="D10" s="7">
-        <v>85554</v>
+        <v>150246</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>235</v>
+        <v>223</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>236</v>
+        <v>224</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>18</v>
+        <v>215</v>
       </c>
       <c r="H10" s="7">
-        <v>109</v>
+        <v>259</v>
       </c>
       <c r="I10" s="7">
-        <v>73879</v>
+        <v>173263</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>237</v>
+        <v>225</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>238</v>
+        <v>143</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>18</v>
+        <v>226</v>
       </c>
       <c r="M10" s="7">
-        <v>225</v>
+        <v>501</v>
       </c>
       <c r="N10" s="7">
-        <v>159433</v>
+        <v>323509</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>239</v>
+        <v>227</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>240</v>
+        <v>228</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>241</v>
+        <v>229</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -4772,102 +4274,102 @@
         <v>3</v>
       </c>
       <c r="C11" s="7">
-        <v>118</v>
+        <v>245</v>
       </c>
       <c r="D11" s="7">
-        <v>86996</v>
+        <v>151927</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="H11" s="7">
-        <v>111</v>
+        <v>262</v>
       </c>
       <c r="I11" s="7">
-        <v>75155</v>
+        <v>175303</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="M11" s="7">
-        <v>229</v>
+        <v>507</v>
       </c>
       <c r="N11" s="7">
-        <v>162151</v>
+        <v>327230</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C12" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="D12" s="7">
-        <v>0</v>
+        <v>1180</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>11</v>
+        <v>183</v>
       </c>
       <c r="F12" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>133</v>
+      </c>
+      <c r="H12" s="7">
+        <v>0</v>
+      </c>
+      <c r="I12" s="7">
+        <v>0</v>
+      </c>
+      <c r="J12" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K12" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="G12" s="7" t="s">
-        <v>181</v>
-      </c>
-      <c r="H12" s="7">
-        <v>1</v>
-      </c>
-      <c r="I12" s="7">
-        <v>536</v>
-      </c>
-      <c r="J12" s="7" t="s">
-        <v>242</v>
-      </c>
-      <c r="K12" s="7" t="s">
-        <v>11</v>
-      </c>
       <c r="L12" s="7" t="s">
-        <v>243</v>
+        <v>230</v>
       </c>
       <c r="M12" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="N12" s="7">
-        <v>536</v>
+        <v>1180</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>244</v>
+        <v>231</v>
       </c>
       <c r="P12" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>245</v>
+        <v>232</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -4876,100 +4378,100 @@
         <v>16</v>
       </c>
       <c r="C13" s="7">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="D13" s="7">
-        <v>2040</v>
+        <v>4021</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>163</v>
+        <v>170</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>246</v>
+        <v>233</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>247</v>
+        <v>234</v>
       </c>
       <c r="H13" s="7">
         <v>2</v>
       </c>
       <c r="I13" s="7">
-        <v>1145</v>
+        <v>1475</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>248</v>
+        <v>14</v>
       </c>
       <c r="K13" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>249</v>
+        <v>235</v>
       </c>
       <c r="M13" s="7">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="N13" s="7">
-        <v>3185</v>
+        <v>5496</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>250</v>
+        <v>236</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>242</v>
+        <v>207</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>50</v>
+        <v>237</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="C14" s="7">
-        <v>259</v>
+        <v>186</v>
       </c>
       <c r="D14" s="7">
-        <v>173263</v>
+        <v>111351</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>251</v>
+        <v>238</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>252</v>
+        <v>239</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>253</v>
+        <v>240</v>
       </c>
       <c r="H14" s="7">
+        <v>196</v>
+      </c>
+      <c r="I14" s="7">
+        <v>131372</v>
+      </c>
+      <c r="J14" s="7" t="s">
+        <v>223</v>
+      </c>
+      <c r="K14" s="7" t="s">
+        <v>241</v>
+      </c>
+      <c r="L14" s="7" t="s">
+        <v>76</v>
+      </c>
+      <c r="M14" s="7">
+        <v>382</v>
+      </c>
+      <c r="N14" s="7">
+        <v>242723</v>
+      </c>
+      <c r="O14" s="7" t="s">
         <v>242</v>
       </c>
-      <c r="I14" s="7">
-        <v>150246</v>
-      </c>
-      <c r="J14" s="7" t="s">
-        <v>254</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>160</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>255</v>
-      </c>
-      <c r="M14" s="7">
-        <v>501</v>
-      </c>
-      <c r="N14" s="7">
-        <v>323509</v>
-      </c>
-      <c r="O14" s="7" t="s">
-        <v>256</v>
-      </c>
       <c r="P14" s="7" t="s">
-        <v>257</v>
+        <v>243</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>258</v>
+        <v>244</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -4978,102 +4480,102 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>262</v>
+        <v>195</v>
       </c>
       <c r="D15" s="7">
-        <v>175303</v>
+        <v>116552</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="H15" s="7">
-        <v>245</v>
+        <v>198</v>
       </c>
       <c r="I15" s="7">
-        <v>151927</v>
+        <v>132847</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="M15" s="7">
-        <v>507</v>
+        <v>393</v>
       </c>
       <c r="N15" s="7">
-        <v>327230</v>
+        <v>249399</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D16" s="7">
-        <v>0</v>
+        <v>726</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>11</v>
+        <v>245</v>
       </c>
       <c r="F16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>246</v>
+      </c>
+      <c r="H16" s="7">
+        <v>0</v>
+      </c>
+      <c r="I16" s="7">
+        <v>0</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="K16" s="7" t="s">
         <v>12</v>
       </c>
-      <c r="G16" s="7" t="s">
-        <v>144</v>
-      </c>
-      <c r="H16" s="7">
-        <v>2</v>
-      </c>
-      <c r="I16" s="7">
-        <v>1180</v>
-      </c>
-      <c r="J16" s="7" t="s">
-        <v>259</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>11</v>
-      </c>
       <c r="L16" s="7" t="s">
-        <v>260</v>
+        <v>247</v>
       </c>
       <c r="M16" s="7">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="N16" s="7">
-        <v>1180</v>
+        <v>726</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>261</v>
+        <v>248</v>
       </c>
       <c r="P16" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>262</v>
+        <v>151</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -5082,100 +4584,100 @@
         <v>16</v>
       </c>
       <c r="C17" s="7">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="D17" s="7">
-        <v>1475</v>
+        <v>2914</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>263</v>
+        <v>203</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>11</v>
+        <v>231</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>264</v>
+        <v>235</v>
       </c>
       <c r="H17" s="7">
+        <v>3</v>
+      </c>
+      <c r="I17" s="7">
+        <v>2019</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>149</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>249</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>250</v>
+      </c>
+      <c r="M17" s="7">
         <v>7</v>
       </c>
-      <c r="I17" s="7">
-        <v>4021</v>
-      </c>
-      <c r="J17" s="7" t="s">
-        <v>265</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>266</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>267</v>
-      </c>
-      <c r="M17" s="7">
-        <v>9</v>
-      </c>
       <c r="N17" s="7">
-        <v>5496</v>
+        <v>4933</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>268</v>
+        <v>251</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>269</v>
+        <v>252</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>270</v>
+        <v>253</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="C18" s="7">
-        <v>196</v>
+        <v>219</v>
       </c>
       <c r="D18" s="7">
-        <v>131372</v>
+        <v>163187</v>
       </c>
       <c r="E18" s="7" t="s">
         <v>254</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>271</v>
+        <v>255</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>18</v>
+        <v>256</v>
       </c>
       <c r="H18" s="7">
-        <v>186</v>
+        <v>223</v>
       </c>
       <c r="I18" s="7">
-        <v>111351</v>
+        <v>156189</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>272</v>
+        <v>156</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>273</v>
+        <v>257</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>274</v>
+        <v>258</v>
       </c>
       <c r="M18" s="7">
-        <v>382</v>
+        <v>442</v>
       </c>
       <c r="N18" s="7">
-        <v>242723</v>
+        <v>319376</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>275</v>
+        <v>259</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>276</v>
+        <v>260</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>199</v>
+        <v>261</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -5184,102 +4686,102 @@
         <v>3</v>
       </c>
       <c r="C19" s="7">
-        <v>198</v>
+        <v>224</v>
       </c>
       <c r="D19" s="7">
-        <v>132847</v>
+        <v>166827</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="H19" s="7">
-        <v>195</v>
+        <v>226</v>
       </c>
       <c r="I19" s="7">
-        <v>116552</v>
+        <v>158208</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="M19" s="7">
-        <v>393</v>
+        <v>450</v>
       </c>
       <c r="N19" s="7">
-        <v>249399</v>
+        <v>325035</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>84</v>
+        <v>3</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C20" s="7">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="D20" s="7">
-        <v>0</v>
+        <v>2441</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>11</v>
+        <v>40</v>
       </c>
       <c r="F20" s="7" t="s">
-        <v>12</v>
+        <v>101</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>204</v>
+        <v>14</v>
       </c>
       <c r="H20" s="7">
         <v>1</v>
       </c>
       <c r="I20" s="7">
-        <v>726</v>
+        <v>678</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>277</v>
+        <v>101</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>278</v>
+        <v>262</v>
       </c>
       <c r="M20" s="7">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="N20" s="7">
-        <v>726</v>
+        <v>3119</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>279</v>
+        <v>263</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>11</v>
+        <v>264</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>266</v>
+        <v>252</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -5288,100 +4790,100 @@
         <v>16</v>
       </c>
       <c r="C21" s="7">
-        <v>3</v>
+        <v>15</v>
       </c>
       <c r="D21" s="7">
-        <v>2019</v>
+        <v>9356</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>165</v>
+        <v>265</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>280</v>
+        <v>266</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>281</v>
+        <v>267</v>
       </c>
       <c r="H21" s="7">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="I21" s="7">
-        <v>2914</v>
+        <v>6299</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>282</v>
+        <v>61</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>283</v>
+        <v>268</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>284</v>
+        <v>269</v>
       </c>
       <c r="M21" s="7">
-        <v>7</v>
+        <v>24</v>
       </c>
       <c r="N21" s="7">
-        <v>4933</v>
+        <v>15655</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>285</v>
+        <v>122</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>286</v>
+        <v>270</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>287</v>
+        <v>20</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="C22" s="7">
-        <v>223</v>
+        <v>771</v>
       </c>
       <c r="D22" s="7">
-        <v>156189</v>
+        <v>513593</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>171</v>
+        <v>271</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>288</v>
+        <v>272</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>289</v>
+        <v>273</v>
       </c>
       <c r="H22" s="7">
-        <v>219</v>
+        <v>815</v>
       </c>
       <c r="I22" s="7">
-        <v>163187</v>
+        <v>564056</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>290</v>
+        <v>126</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>291</v>
+        <v>271</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>292</v>
+        <v>274</v>
       </c>
       <c r="M22" s="7">
-        <v>442</v>
+        <v>1586</v>
       </c>
       <c r="N22" s="7">
-        <v>319376</v>
+        <v>1077649</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>293</v>
+        <v>275</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>294</v>
+        <v>276</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>41</v>
+        <v>277</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -5390,268 +4892,61 @@
         <v>3</v>
       </c>
       <c r="C23" s="7">
-        <v>226</v>
+        <v>790</v>
       </c>
       <c r="D23" s="7">
-        <v>158208</v>
+        <v>525390</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="H23" s="7">
-        <v>224</v>
+        <v>825</v>
       </c>
       <c r="I23" s="7">
-        <v>166827</v>
+        <v>571033</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="M23" s="7">
-        <v>450</v>
+        <v>1615</v>
       </c>
       <c r="N23" s="7">
-        <v>325035</v>
+        <v>1096423</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C24" s="7">
-        <v>1</v>
-      </c>
-      <c r="D24" s="7">
-        <v>678</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>283</v>
-      </c>
-      <c r="H24" s="7">
-        <v>4</v>
-      </c>
-      <c r="I24" s="7">
-        <v>2441</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>107</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>295</v>
-      </c>
-      <c r="M24" s="7">
-        <v>5</v>
-      </c>
-      <c r="N24" s="7">
-        <v>3119</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>169</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>296</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>297</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" s="1"/>
-      <c r="B25" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C25" s="7">
-        <v>9</v>
-      </c>
-      <c r="D25" s="7">
-        <v>6299</v>
-      </c>
-      <c r="E25" s="7" t="s">
-        <v>68</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>298</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>299</v>
-      </c>
-      <c r="H25" s="7">
-        <v>15</v>
-      </c>
-      <c r="I25" s="7">
-        <v>9356</v>
-      </c>
-      <c r="J25" s="7" t="s">
-        <v>243</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>300</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>287</v>
-      </c>
-      <c r="M25" s="7">
-        <v>24</v>
-      </c>
-      <c r="N25" s="7">
-        <v>15655</v>
-      </c>
-      <c r="O25" s="7" t="s">
-        <v>301</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>302</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>299</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A26" s="1"/>
-      <c r="B26" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C26" s="7">
-        <v>815</v>
-      </c>
-      <c r="D26" s="7">
-        <v>564056</v>
-      </c>
-      <c r="E26" s="7" t="s">
-        <v>303</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>304</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>305</v>
-      </c>
-      <c r="H26" s="7">
-        <v>771</v>
-      </c>
-      <c r="I26" s="7">
-        <v>513593</v>
-      </c>
-      <c r="J26" s="7" t="s">
-        <v>306</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>123</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>307</v>
-      </c>
-      <c r="M26" s="7">
-        <v>1586</v>
-      </c>
-      <c r="N26" s="7">
-        <v>1077649</v>
-      </c>
-      <c r="O26" s="7" t="s">
-        <v>308</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>309</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>310</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A27" s="1"/>
-      <c r="B27" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C27" s="7">
-        <v>825</v>
-      </c>
-      <c r="D27" s="7">
-        <v>571033</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="H27" s="7">
-        <v>790</v>
-      </c>
-      <c r="I27" s="7">
-        <v>525390</v>
-      </c>
-      <c r="J27" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="M27" s="7">
-        <v>1615</v>
-      </c>
-      <c r="N27" s="7">
-        <v>1096423</v>
-      </c>
-      <c r="O27" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="P27" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>126</v>
+      <c r="A24" t="s">
+        <v>120</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A16:A19"/>
     <mergeCell ref="A20:A23"/>
-    <mergeCell ref="A24:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
@@ -5664,8 +4959,8 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8D2D029-B961-4CDE-BA4F-5BC2D1AC3551}">
-  <dimension ref="A1:Q28"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DCD2020B-3B84-424E-BFD5-01B44AB11D8E}">
+  <dimension ref="A1:Q24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -5681,7 +4976,7 @@
   <sheetData>
     <row r="1" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
-        <v>311</v>
+        <v>278</v>
       </c>
       <c r="B1" s="2"/>
       <c r="C1" s="3" t="s">
@@ -5794,7 +5089,7 @@
         <v>12</v>
       </c>
       <c r="G4" s="7" t="s">
-        <v>129</v>
+        <v>220</v>
       </c>
       <c r="H4" s="7">
         <v>0</v>
@@ -5809,7 +5104,7 @@
         <v>12</v>
       </c>
       <c r="L4" s="7" t="s">
-        <v>312</v>
+        <v>151</v>
       </c>
       <c r="M4" s="7">
         <v>0</v>
@@ -5824,7 +5119,7 @@
         <v>12</v>
       </c>
       <c r="Q4" s="7" t="s">
-        <v>313</v>
+        <v>279</v>
       </c>
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.3">
@@ -5845,88 +5140,88 @@
         <v>12</v>
       </c>
       <c r="G5" s="7" t="s">
-        <v>129</v>
+        <v>220</v>
       </c>
       <c r="H5" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I5" s="7">
-        <v>0</v>
+        <v>486</v>
       </c>
       <c r="J5" s="7" t="s">
-        <v>11</v>
+        <v>202</v>
       </c>
       <c r="K5" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L5" s="7" t="s">
-        <v>312</v>
+        <v>280</v>
       </c>
       <c r="M5" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N5" s="7">
-        <v>0</v>
+        <v>486</v>
       </c>
       <c r="O5" s="7" t="s">
-        <v>11</v>
+        <v>281</v>
       </c>
       <c r="P5" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Q5" s="7" t="s">
-        <v>313</v>
+        <v>183</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
       <c r="B6" s="5" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="C6" s="7">
-        <v>19</v>
+        <v>196</v>
       </c>
       <c r="D6" s="7">
-        <v>12698</v>
+        <v>117280</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>18</v>
+        <v>76</v>
       </c>
       <c r="F6" s="7" t="s">
-        <v>132</v>
+        <v>282</v>
       </c>
       <c r="G6" s="7" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="H6" s="7">
-        <v>28</v>
+        <v>170</v>
       </c>
       <c r="I6" s="7">
-        <v>16787</v>
+        <v>139926</v>
       </c>
       <c r="J6" s="7" t="s">
-        <v>18</v>
+        <v>215</v>
       </c>
       <c r="K6" s="7" t="s">
-        <v>314</v>
+        <v>283</v>
       </c>
       <c r="L6" s="7" t="s">
-        <v>20</v>
+        <v>76</v>
       </c>
       <c r="M6" s="7">
-        <v>47</v>
+        <v>366</v>
       </c>
       <c r="N6" s="7">
-        <v>29485</v>
+        <v>257207</v>
       </c>
       <c r="O6" s="7" t="s">
-        <v>18</v>
+        <v>284</v>
       </c>
       <c r="P6" s="7" t="s">
-        <v>315</v>
+        <v>285</v>
       </c>
       <c r="Q6" s="7" t="s">
-        <v>20</v>
+        <v>76</v>
       </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.3">
@@ -5935,54 +5230,54 @@
         <v>3</v>
       </c>
       <c r="C7" s="7">
-        <v>19</v>
+        <v>196</v>
       </c>
       <c r="D7" s="7">
-        <v>12698</v>
+        <v>117280</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="F7" s="7" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="G7" s="7" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="H7" s="7">
-        <v>28</v>
+        <v>171</v>
       </c>
       <c r="I7" s="7">
-        <v>16787</v>
+        <v>140412</v>
       </c>
       <c r="J7" s="7" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="K7" s="7" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="L7" s="7" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="M7" s="7">
-        <v>47</v>
+        <v>367</v>
       </c>
       <c r="N7" s="7">
-        <v>29485</v>
+        <v>257693</v>
       </c>
       <c r="O7" s="7" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="P7" s="7" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="Q7" s="7" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" s="1" t="s">
-        <v>23</v>
+        <v>37</v>
       </c>
       <c r="B8" s="5" t="s">
         <v>10</v>
@@ -6000,37 +5295,37 @@
         <v>12</v>
       </c>
       <c r="G8" s="7" t="s">
-        <v>316</v>
+        <v>286</v>
       </c>
       <c r="H8" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I8" s="7">
-        <v>0</v>
+        <v>698</v>
       </c>
       <c r="J8" s="7" t="s">
-        <v>11</v>
+        <v>184</v>
       </c>
       <c r="K8" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L8" s="7" t="s">
-        <v>295</v>
+        <v>86</v>
       </c>
       <c r="M8" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="N8" s="7">
-        <v>0</v>
+        <v>698</v>
       </c>
       <c r="O8" s="7" t="s">
-        <v>11</v>
+        <v>216</v>
       </c>
       <c r="P8" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Q8" s="7" t="s">
-        <v>317</v>
+        <v>252</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -6039,100 +5334,100 @@
         <v>16</v>
       </c>
       <c r="C9" s="7">
+        <v>0</v>
+      </c>
+      <c r="D9" s="7">
+        <v>0</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>286</v>
+      </c>
+      <c r="H9" s="7">
         <v>1</v>
       </c>
-      <c r="D9" s="7">
-        <v>491</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>318</v>
-      </c>
-      <c r="H9" s="7">
-        <v>0</v>
-      </c>
       <c r="I9" s="7">
-        <v>0</v>
+        <v>939</v>
       </c>
       <c r="J9" s="7" t="s">
-        <v>11</v>
+        <v>287</v>
       </c>
       <c r="K9" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L9" s="7" t="s">
-        <v>295</v>
+        <v>288</v>
       </c>
       <c r="M9" s="7">
         <v>1</v>
       </c>
       <c r="N9" s="7">
-        <v>491</v>
+        <v>939</v>
       </c>
       <c r="O9" s="7" t="s">
-        <v>279</v>
+        <v>289</v>
       </c>
       <c r="P9" s="7" t="s">
         <v>11</v>
       </c>
       <c r="Q9" s="7" t="s">
-        <v>319</v>
+        <v>66</v>
       </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="5" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="C10" s="7">
-        <v>151</v>
+        <v>280</v>
       </c>
       <c r="D10" s="7">
-        <v>114105</v>
+        <v>190512</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>320</v>
+        <v>76</v>
       </c>
       <c r="F10" s="7" t="s">
-        <v>321</v>
+        <v>290</v>
       </c>
       <c r="G10" s="7" t="s">
-        <v>18</v>
+        <v>36</v>
       </c>
       <c r="H10" s="7">
-        <v>168</v>
+        <v>341</v>
       </c>
       <c r="I10" s="7">
-        <v>103895</v>
+        <v>253398</v>
       </c>
       <c r="J10" s="7" t="s">
-        <v>18</v>
+        <v>274</v>
       </c>
       <c r="K10" s="7" t="s">
-        <v>256</v>
+        <v>291</v>
       </c>
       <c r="L10" s="7" t="s">
-        <v>20</v>
+        <v>76</v>
       </c>
       <c r="M10" s="7">
-        <v>319</v>
+        <v>621</v>
       </c>
       <c r="N10" s="7">
-        <v>217999</v>
+        <v>443911</v>
       </c>
       <c r="O10" s="7" t="s">
-        <v>322</v>
+        <v>292</v>
       </c>
       <c r="P10" s="7" t="s">
-        <v>323</v>
+        <v>293</v>
       </c>
       <c r="Q10" s="7" t="s">
-        <v>18</v>
+        <v>76</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -6141,72 +5436,72 @@
         <v>3</v>
       </c>
       <c r="C11" s="7">
-        <v>152</v>
+        <v>280</v>
       </c>
       <c r="D11" s="7">
-        <v>114596</v>
+        <v>190512</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="F11" s="7" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="G11" s="7" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="H11" s="7">
-        <v>168</v>
+        <v>343</v>
       </c>
       <c r="I11" s="7">
-        <v>103895</v>
+        <v>255035</v>
       </c>
       <c r="J11" s="7" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="K11" s="7" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="L11" s="7" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="M11" s="7">
-        <v>320</v>
+        <v>623</v>
       </c>
       <c r="N11" s="7">
-        <v>218490</v>
+        <v>445548</v>
       </c>
       <c r="O11" s="7" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="P11" s="7" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="Q11" s="7" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" s="1" t="s">
-        <v>45</v>
+        <v>59</v>
       </c>
       <c r="B12" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C12" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D12" s="7">
-        <v>658</v>
+        <v>0</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>106</v>
+        <v>11</v>
       </c>
       <c r="F12" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="G12" s="7" t="s">
-        <v>75</v>
+        <v>294</v>
       </c>
       <c r="H12" s="7">
         <v>0</v>
@@ -6221,22 +5516,22 @@
         <v>12</v>
       </c>
       <c r="L12" s="7" t="s">
-        <v>324</v>
+        <v>247</v>
       </c>
       <c r="M12" s="7">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="N12" s="7">
-        <v>658</v>
+        <v>0</v>
       </c>
       <c r="O12" s="7" t="s">
-        <v>325</v>
+        <v>11</v>
       </c>
       <c r="P12" s="7" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Q12" s="7" t="s">
-        <v>136</v>
+        <v>295</v>
       </c>
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
@@ -6245,19 +5540,19 @@
         <v>16</v>
       </c>
       <c r="C13" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D13" s="7">
-        <v>888</v>
+        <v>28229</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>234</v>
+        <v>296</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>11</v>
+        <v>184</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>262</v>
+        <v>297</v>
       </c>
       <c r="H13" s="7">
         <v>0</v>
@@ -6272,73 +5567,73 @@
         <v>12</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>324</v>
+        <v>247</v>
       </c>
       <c r="M13" s="7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="N13" s="7">
-        <v>888</v>
+        <v>28229</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>326</v>
+        <v>298</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>11</v>
+        <v>100</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>189</v>
+        <v>299</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="5" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="C14" s="7">
-        <v>341</v>
+        <v>224</v>
       </c>
       <c r="D14" s="7">
-        <v>248639</v>
+        <v>162172</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>327</v>
+        <v>300</v>
       </c>
       <c r="F14" s="7" t="s">
-        <v>328</v>
+        <v>301</v>
       </c>
       <c r="G14" s="7" t="s">
-        <v>18</v>
+        <v>302</v>
       </c>
       <c r="H14" s="7">
-        <v>280</v>
+        <v>225</v>
       </c>
       <c r="I14" s="7">
-        <v>192352</v>
+        <v>185286</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>18</v>
+        <v>76</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>329</v>
+        <v>179</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="M14" s="7">
-        <v>621</v>
+        <v>449</v>
       </c>
       <c r="N14" s="7">
-        <v>440991</v>
+        <v>347458</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>255</v>
+        <v>303</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>330</v>
+        <v>304</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>18</v>
+        <v>305</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -6347,102 +5642,102 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
-        <v>343</v>
+        <v>227</v>
       </c>
       <c r="D15" s="7">
-        <v>250186</v>
+        <v>190401</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="F15" s="7" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="G15" s="7" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="H15" s="7">
-        <v>280</v>
+        <v>225</v>
       </c>
       <c r="I15" s="7">
-        <v>192352</v>
+        <v>185286</v>
       </c>
       <c r="J15" s="7" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="K15" s="7" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="L15" s="7" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="M15" s="7">
-        <v>623</v>
+        <v>452</v>
       </c>
       <c r="N15" s="7">
-        <v>442538</v>
+        <v>375687</v>
       </c>
       <c r="O15" s="7" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="P15" s="7" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="Q15" s="7" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
     </row>
     <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" s="1" t="s">
-        <v>67</v>
+        <v>80</v>
       </c>
       <c r="B16" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C16" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D16" s="7">
-        <v>0</v>
+        <v>757</v>
       </c>
       <c r="E16" s="7" t="s">
-        <v>11</v>
+        <v>306</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>204</v>
+        <v>307</v>
       </c>
       <c r="H16" s="7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="I16" s="7">
-        <v>0</v>
+        <v>943</v>
       </c>
       <c r="J16" s="7" t="s">
-        <v>11</v>
+        <v>279</v>
       </c>
       <c r="K16" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="L16" s="7" t="s">
-        <v>331</v>
+        <v>308</v>
       </c>
       <c r="M16" s="7">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="N16" s="7">
-        <v>0</v>
+        <v>1700</v>
       </c>
       <c r="O16" s="7" t="s">
-        <v>11</v>
+        <v>309</v>
       </c>
       <c r="P16" s="7" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="Q16" s="7" t="s">
-        <v>228</v>
+        <v>310</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -6451,100 +5746,100 @@
         <v>16</v>
       </c>
       <c r="C17" s="7">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="D17" s="7">
-        <v>0</v>
+        <v>3053</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>11</v>
+        <v>311</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>12</v>
+        <v>286</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>204</v>
+        <v>312</v>
       </c>
       <c r="H17" s="7">
-        <v>3</v>
+        <v>11</v>
       </c>
       <c r="I17" s="7">
-        <v>9921</v>
+        <v>8317</v>
       </c>
       <c r="J17" s="7" t="s">
-        <v>332</v>
+        <v>313</v>
       </c>
       <c r="K17" s="7" t="s">
-        <v>333</v>
+        <v>45</v>
       </c>
       <c r="L17" s="7" t="s">
-        <v>334</v>
+        <v>314</v>
       </c>
       <c r="M17" s="7">
-        <v>3</v>
+        <v>16</v>
       </c>
       <c r="N17" s="7">
-        <v>9921</v>
+        <v>11370</v>
       </c>
       <c r="O17" s="7" t="s">
-        <v>335</v>
+        <v>315</v>
       </c>
       <c r="P17" s="7" t="s">
-        <v>336</v>
+        <v>316</v>
       </c>
       <c r="Q17" s="7" t="s">
-        <v>337</v>
+        <v>317</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="5" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="C18" s="7">
-        <v>225</v>
+        <v>234</v>
       </c>
       <c r="D18" s="7">
-        <v>173208</v>
+        <v>164153</v>
       </c>
       <c r="E18" s="7" t="s">
-        <v>18</v>
+        <v>318</v>
       </c>
       <c r="F18" s="7" t="s">
-        <v>338</v>
+        <v>319</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>20</v>
+        <v>285</v>
       </c>
       <c r="H18" s="7">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="I18" s="7">
-        <v>158814</v>
+        <v>171978</v>
       </c>
       <c r="J18" s="7" t="s">
-        <v>339</v>
+        <v>320</v>
       </c>
       <c r="K18" s="7" t="s">
-        <v>340</v>
+        <v>321</v>
       </c>
       <c r="L18" s="7" t="s">
-        <v>341</v>
+        <v>322</v>
       </c>
       <c r="M18" s="7">
-        <v>449</v>
+        <v>460</v>
       </c>
       <c r="N18" s="7">
-        <v>332022</v>
+        <v>336131</v>
       </c>
       <c r="O18" s="7" t="s">
-        <v>197</v>
+        <v>323</v>
       </c>
       <c r="P18" s="7" t="s">
-        <v>342</v>
+        <v>324</v>
       </c>
       <c r="Q18" s="7" t="s">
-        <v>343</v>
+        <v>318</v>
       </c>
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
@@ -6553,54 +5848,54 @@
         <v>3</v>
       </c>
       <c r="C19" s="7">
-        <v>225</v>
+        <v>240</v>
       </c>
       <c r="D19" s="7">
-        <v>173208</v>
+        <v>167962</v>
       </c>
       <c r="E19" s="7" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="F19" s="7" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="H19" s="7">
-        <v>227</v>
+        <v>238</v>
       </c>
       <c r="I19" s="7">
-        <v>168735</v>
+        <v>181238</v>
       </c>
       <c r="J19" s="7" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="K19" s="7" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="L19" s="7" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="M19" s="7">
-        <v>452</v>
+        <v>478</v>
       </c>
       <c r="N19" s="7">
-        <v>341943</v>
+        <v>349201</v>
       </c>
       <c r="O19" s="7" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="P19" s="7" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="Q19" s="7" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
     </row>
     <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" s="1" t="s">
-        <v>84</v>
+        <v>3</v>
       </c>
       <c r="B20" s="5" t="s">
         <v>10</v>
@@ -6609,46 +5904,46 @@
         <v>1</v>
       </c>
       <c r="D20" s="7">
-        <v>902</v>
+        <v>757</v>
       </c>
       <c r="E20" s="7" t="s">
-        <v>333</v>
+        <v>264</v>
       </c>
       <c r="F20" s="7" t="s">
         <v>11</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>344</v>
+        <v>18</v>
       </c>
       <c r="H20" s="7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I20" s="7">
-        <v>848</v>
+        <v>1642</v>
       </c>
       <c r="J20" s="7" t="s">
-        <v>283</v>
+        <v>248</v>
       </c>
       <c r="K20" s="7" t="s">
         <v>11</v>
       </c>
       <c r="L20" s="7" t="s">
-        <v>345</v>
+        <v>325</v>
       </c>
       <c r="M20" s="7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N20" s="7">
-        <v>1750</v>
+        <v>2398</v>
       </c>
       <c r="O20" s="7" t="s">
-        <v>179</v>
+        <v>326</v>
       </c>
       <c r="P20" s="7" t="s">
-        <v>11</v>
+        <v>327</v>
       </c>
       <c r="Q20" s="7" t="s">
-        <v>346</v>
+        <v>328</v>
       </c>
     </row>
     <row r="21" spans="1:17" x14ac:dyDescent="0.3">
@@ -6657,100 +5952,100 @@
         <v>16</v>
       </c>
       <c r="C21" s="7">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="D21" s="7">
-        <v>8134</v>
+        <v>31282</v>
       </c>
       <c r="E21" s="7" t="s">
-        <v>52</v>
+        <v>329</v>
       </c>
       <c r="F21" s="7" t="s">
-        <v>347</v>
+        <v>21</v>
       </c>
       <c r="G21" s="7" t="s">
-        <v>348</v>
+        <v>330</v>
       </c>
       <c r="H21" s="7">
-        <v>5</v>
+        <v>13</v>
       </c>
       <c r="I21" s="7">
-        <v>3075</v>
+        <v>9741</v>
       </c>
       <c r="J21" s="7" t="s">
-        <v>262</v>
+        <v>149</v>
       </c>
       <c r="K21" s="7" t="s">
-        <v>324</v>
+        <v>286</v>
       </c>
       <c r="L21" s="7" t="s">
-        <v>349</v>
+        <v>20</v>
       </c>
       <c r="M21" s="7">
-        <v>16</v>
+        <v>21</v>
       </c>
       <c r="N21" s="7">
-        <v>11209</v>
+        <v>41023</v>
       </c>
       <c r="O21" s="7" t="s">
-        <v>260</v>
+        <v>48</v>
       </c>
       <c r="P21" s="7" t="s">
-        <v>109</v>
+        <v>331</v>
       </c>
       <c r="Q21" s="7" t="s">
-        <v>350</v>
+        <v>332</v>
       </c>
     </row>
     <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="5" t="s">
-        <v>17</v>
+        <v>26</v>
       </c>
       <c r="C22" s="7">
-        <v>226</v>
+        <v>934</v>
       </c>
       <c r="D22" s="7">
-        <v>165981</v>
+        <v>634116</v>
       </c>
       <c r="E22" s="7" t="s">
-        <v>224</v>
+        <v>333</v>
       </c>
       <c r="F22" s="7" t="s">
-        <v>351</v>
+        <v>334</v>
       </c>
       <c r="G22" s="7" t="s">
-        <v>66</v>
+        <v>335</v>
       </c>
       <c r="H22" s="7">
-        <v>234</v>
+        <v>962</v>
       </c>
       <c r="I22" s="7">
-        <v>168020</v>
+        <v>750589</v>
       </c>
       <c r="J22" s="7" t="s">
-        <v>213</v>
+        <v>142</v>
       </c>
       <c r="K22" s="7" t="s">
-        <v>352</v>
+        <v>336</v>
       </c>
       <c r="L22" s="7" t="s">
-        <v>353</v>
+        <v>337</v>
       </c>
       <c r="M22" s="7">
-        <v>460</v>
+        <v>1896</v>
       </c>
       <c r="N22" s="7">
-        <v>333999</v>
+        <v>1384705</v>
       </c>
       <c r="O22" s="7" t="s">
-        <v>214</v>
+        <v>338</v>
       </c>
       <c r="P22" s="7" t="s">
-        <v>354</v>
+        <v>339</v>
       </c>
       <c r="Q22" s="7" t="s">
-        <v>355</v>
+        <v>340</v>
       </c>
     </row>
     <row r="23" spans="1:17" x14ac:dyDescent="0.3">
@@ -6759,268 +6054,61 @@
         <v>3</v>
       </c>
       <c r="C23" s="7">
-        <v>238</v>
+        <v>943</v>
       </c>
       <c r="D23" s="7">
-        <v>175016</v>
+        <v>666155</v>
       </c>
       <c r="E23" s="7" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="F23" s="7" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="G23" s="7" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="H23" s="7">
-        <v>240</v>
+        <v>977</v>
       </c>
       <c r="I23" s="7">
-        <v>171943</v>
+        <v>761972</v>
       </c>
       <c r="J23" s="7" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="K23" s="7" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="L23" s="7" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="M23" s="7">
-        <v>478</v>
+        <v>1920</v>
       </c>
       <c r="N23" s="7">
-        <v>346958</v>
+        <v>1428127</v>
       </c>
       <c r="O23" s="7" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="P23" s="7" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
       <c r="Q23" s="7" t="s">
-        <v>20</v>
+        <v>36</v>
       </c>
     </row>
     <row r="24" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="B24" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="C24" s="7">
-        <v>2</v>
-      </c>
-      <c r="D24" s="7">
-        <v>1560</v>
-      </c>
-      <c r="E24" s="7" t="s">
-        <v>356</v>
-      </c>
-      <c r="F24" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="G24" s="7" t="s">
-        <v>28</v>
-      </c>
-      <c r="H24" s="7">
-        <v>1</v>
-      </c>
-      <c r="I24" s="7">
-        <v>848</v>
-      </c>
-      <c r="J24" s="7" t="s">
-        <v>336</v>
-      </c>
-      <c r="K24" s="7" t="s">
-        <v>11</v>
-      </c>
-      <c r="L24" s="7" t="s">
-        <v>357</v>
-      </c>
-      <c r="M24" s="7">
-        <v>3</v>
-      </c>
-      <c r="N24" s="7">
-        <v>2408</v>
-      </c>
-      <c r="O24" s="7" t="s">
-        <v>358</v>
-      </c>
-      <c r="P24" s="7" t="s">
-        <v>359</v>
-      </c>
-      <c r="Q24" s="7" t="s">
-        <v>179</v>
-      </c>
-    </row>
-    <row r="25" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A25" s="1"/>
-      <c r="B25" s="5" t="s">
-        <v>16</v>
-      </c>
-      <c r="C25" s="7">
-        <v>13</v>
-      </c>
-      <c r="D25" s="7">
-        <v>9513</v>
-      </c>
-      <c r="E25" s="7" t="s">
-        <v>360</v>
-      </c>
-      <c r="F25" s="7" t="s">
-        <v>324</v>
-      </c>
-      <c r="G25" s="7" t="s">
-        <v>278</v>
-      </c>
-      <c r="H25" s="7">
-        <v>8</v>
-      </c>
-      <c r="I25" s="7">
-        <v>12996</v>
-      </c>
-      <c r="J25" s="7" t="s">
-        <v>109</v>
-      </c>
-      <c r="K25" s="7" t="s">
-        <v>283</v>
-      </c>
-      <c r="L25" s="7" t="s">
-        <v>361</v>
-      </c>
-      <c r="M25" s="7">
-        <v>21</v>
-      </c>
-      <c r="N25" s="7">
-        <v>22509</v>
-      </c>
-      <c r="O25" s="7" t="s">
-        <v>362</v>
-      </c>
-      <c r="P25" s="7" t="s">
-        <v>331</v>
-      </c>
-      <c r="Q25" s="7" t="s">
-        <v>363</v>
-      </c>
-    </row>
-    <row r="26" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A26" s="1"/>
-      <c r="B26" s="5" t="s">
-        <v>17</v>
-      </c>
-      <c r="C26" s="7">
-        <v>962</v>
-      </c>
-      <c r="D26" s="7">
-        <v>714631</v>
-      </c>
-      <c r="E26" s="7" t="s">
-        <v>364</v>
-      </c>
-      <c r="F26" s="7" t="s">
-        <v>365</v>
-      </c>
-      <c r="G26" s="7" t="s">
-        <v>193</v>
-      </c>
-      <c r="H26" s="7">
-        <v>934</v>
-      </c>
-      <c r="I26" s="7">
-        <v>639867</v>
-      </c>
-      <c r="J26" s="7" t="s">
-        <v>321</v>
-      </c>
-      <c r="K26" s="7" t="s">
-        <v>366</v>
-      </c>
-      <c r="L26" s="7" t="s">
-        <v>327</v>
-      </c>
-      <c r="M26" s="7">
-        <v>1896</v>
-      </c>
-      <c r="N26" s="7">
-        <v>1354498</v>
-      </c>
-      <c r="O26" s="7" t="s">
-        <v>367</v>
-      </c>
-      <c r="P26" s="7" t="s">
-        <v>291</v>
-      </c>
-      <c r="Q26" s="7" t="s">
-        <v>368</v>
-      </c>
-    </row>
-    <row r="27" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A27" s="1"/>
-      <c r="B27" s="5" t="s">
-        <v>3</v>
-      </c>
-      <c r="C27" s="7">
-        <v>977</v>
-      </c>
-      <c r="D27" s="7">
-        <v>725704</v>
-      </c>
-      <c r="E27" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="F27" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="G27" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="H27" s="7">
-        <v>943</v>
-      </c>
-      <c r="I27" s="7">
-        <v>653712</v>
-      </c>
-      <c r="J27" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="K27" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="L27" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="M27" s="7">
-        <v>1920</v>
-      </c>
-      <c r="N27" s="7">
-        <v>1379416</v>
-      </c>
-      <c r="O27" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="P27" s="7" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q27" s="7" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
-      <c r="A28" t="s">
-        <v>126</v>
+      <c r="A24" t="s">
+        <v>120</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="10">
+  <mergeCells count="9">
     <mergeCell ref="A12:A15"/>
     <mergeCell ref="A16:A19"/>
     <mergeCell ref="A20:A23"/>
-    <mergeCell ref="A24:A27"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>
